--- a/Guatemala/CENSO 2018/Cuadro A1 - Población total por sexo, grupos quinquenales de edad y área.xlsx
+++ b/Guatemala/CENSO 2018/Cuadro A1 - Población total por sexo, grupos quinquenales de edad y área.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\Guatemala\CENSO 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF599B9C-7D98-4BB2-B3DD-1F98A9BEA3E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D610CC92-1202-47EE-A787-93D04EBAE5CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1_1" sheetId="1" r:id="rId1"/>
     <sheet name="A1_2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">A1_1!$1:$6</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="408">
   <si>
     <t>Características generales de la población. Censo 2018</t>
   </si>
@@ -1195,6 +1196,75 @@
   </si>
   <si>
     <t>Código2</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Grupo Edad</t>
   </si>
 </sst>
 </file>
@@ -1203,9 +1273,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
-    <numFmt numFmtId="179" formatCode=".\ \ \ \ ##0;000000000000000000000000000000000000000000000000000000000000000000000000"/>
+    <numFmt numFmtId="165" formatCode=".\ \ \ \ ##0;000000000000000000000000000000000000000000000000000000000000000000000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1270,6 +1340,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1365,7 +1441,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1453,16 +1529,7 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1480,6 +1547,16 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -1488,67 +1565,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="36">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2394,7 +2410,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="179" formatCode=".\ \ \ \ ##0;000000000000000000000000000000000000000000000000000000000000000000000000"/>
+      <numFmt numFmtId="165" formatCode=".\ \ \ \ ##0;000000000000000000000000000000000000000000000000000000000000000000000000"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2420,7 +2436,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="179" formatCode=".\ \ \ \ ##0;000000000000000000000000000000000000000000000000000000000000000000000000"/>
+      <numFmt numFmtId="165" formatCode=".\ \ \ \ ##0;000000000000000000000000000000000000000000000000000000000000000000000000"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2681,16 +2697,77 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -2707,47 +2784,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{546BF888-D580-4725-885E-A188B7B4DE5C}" name="Población" displayName="Población" ref="A5:AF346" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="34" tableBorderDxfId="35" headerRowCellStyle="Neutral">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{546BF888-D580-4725-885E-A188B7B4DE5C}" name="Población" displayName="Población" ref="A5:AF346" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" headerRowCellStyle="Neutral">
   <autoFilter ref="A5:AF346" xr:uid="{D55912E5-1C26-43B0-946A-8B7E12ABC44F}"/>
   <tableColumns count="32">
-    <tableColumn id="1" xr3:uid="{DB55B1E0-A2B5-4316-A586-9DD10EEC3F35}" name="Código" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{D1FA5CAD-96F6-4092-BC59-1ED5003A6D0B}" name="Departamento" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{D777CC2F-288A-4FE5-8C2C-A1B3DFEEC461}" name="Código2" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{C3CFAA88-C320-4FA7-B344-FCB29882EAC4}" name="Municipio" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{FC39CA06-A055-4C3C-AA36-B131CF11A2E7}" name="Población total" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{5149E000-011C-4882-80D6-7A748FFB914F}" name="Hombres" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{E4728424-5B5D-4E25-8C46-66813CEFFE84}" name="Mujeres" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{E95DB9E1-0743-4B9A-A1BC-8C798E74547D}" name="Mujeres (%)" dataDxfId="26">
+    <tableColumn id="1" xr3:uid="{DB55B1E0-A2B5-4316-A586-9DD10EEC3F35}" name="Código" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{D1FA5CAD-96F6-4092-BC59-1ED5003A6D0B}" name="Departamento" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{D777CC2F-288A-4FE5-8C2C-A1B3DFEEC461}" name="Código2" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{C3CFAA88-C320-4FA7-B344-FCB29882EAC4}" name="Municipio" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{FC39CA06-A055-4C3C-AA36-B131CF11A2E7}" name="Población total" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{5149E000-011C-4882-80D6-7A748FFB914F}" name="Hombres" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{E4728424-5B5D-4E25-8C46-66813CEFFE84}" name="Mujeres" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{E95DB9E1-0743-4B9A-A1BC-8C798E74547D}" name="Mujeres (%)" dataDxfId="24">
       <calculatedColumnFormula>+G6/E6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{86FD656C-558A-4685-9839-47786D326705}" name="Hombres (%)" dataDxfId="25">
+    <tableColumn id="9" xr3:uid="{86FD656C-558A-4685-9839-47786D326705}" name="Hombres (%)" dataDxfId="23">
       <calculatedColumnFormula>+F6/E6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A24039F6-0B63-49D8-812B-B25BC91DCBFC}" name="Población Urbana" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{C0280005-2A6A-4B45-A58A-403557F9CF19}" name="Población Rural" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{7AD343E0-720E-42BC-8AC3-3E4517CBC210}" name="0 - 4" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{5D6712F7-339F-42D4-B507-E4D6D77191EF}" name="5 - 9" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{220E970C-F5F8-4F05-8F6A-9B343E1ADEB9}" name="10 - 14" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{EC871ABA-95EA-4115-B6E1-EF5E3E02D692}" name="15 - 19" dataDxfId="19"/>
-    <tableColumn id="16" xr3:uid="{3718FBF9-6C9D-4158-8B81-6B9575897893}" name="20 - 24" dataDxfId="18"/>
-    <tableColumn id="17" xr3:uid="{601BF7D3-51AC-4642-8BEF-55E039D34AC4}" name="25 - 29" dataDxfId="17"/>
-    <tableColumn id="18" xr3:uid="{F6A78843-F959-45DC-945D-F70AD769B4A5}" name="30 - 34" dataDxfId="16"/>
-    <tableColumn id="19" xr3:uid="{9BC807B2-56CD-4B83-A887-284A05509898}" name="35 - 39" dataDxfId="15"/>
-    <tableColumn id="20" xr3:uid="{78047AC1-083A-46D8-8CFA-B7A9D438AE8B}" name="40 - 44" dataDxfId="14"/>
-    <tableColumn id="21" xr3:uid="{D1562DAE-5A21-4A6C-A4F1-90EA4AA53980}" name="45 - 49" dataDxfId="13"/>
-    <tableColumn id="22" xr3:uid="{8BEB8C07-4031-4165-8DA3-0C2FB8935D92}" name="50 - 54" dataDxfId="12"/>
-    <tableColumn id="23" xr3:uid="{787E8BD7-7078-49EA-9F5F-E0B9E30254ED}" name="55 - 59" dataDxfId="11"/>
-    <tableColumn id="24" xr3:uid="{64C389BE-EB12-4041-B7D5-76CB08038ADB}" name="60 - 64" dataDxfId="10"/>
-    <tableColumn id="25" xr3:uid="{7D9355F4-A596-466B-A694-7A75DCE8D058}" name="65 - 69" dataDxfId="9"/>
-    <tableColumn id="26" xr3:uid="{B16FC9DC-8DA8-4427-9B9B-6D303002260E}" name="70  - 74" dataDxfId="8"/>
-    <tableColumn id="27" xr3:uid="{04E241A5-DCE6-4668-8621-4259A10CA17C}" name="75 - 79" dataDxfId="7"/>
-    <tableColumn id="28" xr3:uid="{B4D1E386-BA04-4D7B-8595-5F810562810D}" name="80 - 84" dataDxfId="6"/>
-    <tableColumn id="29" xr3:uid="{5E379281-EA41-4923-A933-0D7BAA3E0658}" name="85 - 89" dataDxfId="5"/>
-    <tableColumn id="30" xr3:uid="{87C29544-601A-4264-B7DA-649281A9F8C6}" name="90  - 94" dataDxfId="4"/>
-    <tableColumn id="31" xr3:uid="{0D140DB5-4DEB-482E-AD30-26E2AB86C0C9}" name="95 - 99" dataDxfId="3"/>
-    <tableColumn id="32" xr3:uid="{B246ADB6-24B4-4CD3-AA15-35A00ED6F3E1}" name="100 o más" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{A24039F6-0B63-49D8-812B-B25BC91DCBFC}" name="Población Urbana" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{C0280005-2A6A-4B45-A58A-403557F9CF19}" name="Población Rural" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{7AD343E0-720E-42BC-8AC3-3E4517CBC210}" name="0 - 4" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{5D6712F7-339F-42D4-B507-E4D6D77191EF}" name="5 - 9" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{220E970C-F5F8-4F05-8F6A-9B343E1ADEB9}" name="10 - 14" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{EC871ABA-95EA-4115-B6E1-EF5E3E02D692}" name="15 - 19" dataDxfId="17"/>
+    <tableColumn id="16" xr3:uid="{3718FBF9-6C9D-4158-8B81-6B9575897893}" name="20 - 24" dataDxfId="16"/>
+    <tableColumn id="17" xr3:uid="{601BF7D3-51AC-4642-8BEF-55E039D34AC4}" name="25 - 29" dataDxfId="15"/>
+    <tableColumn id="18" xr3:uid="{F6A78843-F959-45DC-945D-F70AD769B4A5}" name="30 - 34" dataDxfId="14"/>
+    <tableColumn id="19" xr3:uid="{9BC807B2-56CD-4B83-A887-284A05509898}" name="35 - 39" dataDxfId="13"/>
+    <tableColumn id="20" xr3:uid="{78047AC1-083A-46D8-8CFA-B7A9D438AE8B}" name="40 - 44" dataDxfId="12"/>
+    <tableColumn id="21" xr3:uid="{D1562DAE-5A21-4A6C-A4F1-90EA4AA53980}" name="45 - 49" dataDxfId="11"/>
+    <tableColumn id="22" xr3:uid="{8BEB8C07-4031-4165-8DA3-0C2FB8935D92}" name="50 - 54" dataDxfId="10"/>
+    <tableColumn id="23" xr3:uid="{787E8BD7-7078-49EA-9F5F-E0B9E30254ED}" name="55 - 59" dataDxfId="9"/>
+    <tableColumn id="24" xr3:uid="{64C389BE-EB12-4041-B7D5-76CB08038ADB}" name="60 - 64" dataDxfId="8"/>
+    <tableColumn id="25" xr3:uid="{7D9355F4-A596-466B-A694-7A75DCE8D058}" name="65 - 69" dataDxfId="7"/>
+    <tableColumn id="26" xr3:uid="{B16FC9DC-8DA8-4427-9B9B-6D303002260E}" name="70  - 74" dataDxfId="6"/>
+    <tableColumn id="27" xr3:uid="{04E241A5-DCE6-4668-8621-4259A10CA17C}" name="75 - 79" dataDxfId="5"/>
+    <tableColumn id="28" xr3:uid="{B4D1E386-BA04-4D7B-8595-5F810562810D}" name="80 - 84" dataDxfId="4"/>
+    <tableColumn id="29" xr3:uid="{5E379281-EA41-4923-A933-0D7BAA3E0658}" name="85 - 89" dataDxfId="3"/>
+    <tableColumn id="30" xr3:uid="{87C29544-601A-4264-B7DA-649281A9F8C6}" name="90  - 94" dataDxfId="2"/>
+    <tableColumn id="31" xr3:uid="{0D140DB5-4DEB-482E-AD30-26E2AB86C0C9}" name="95 - 99" dataDxfId="1"/>
+    <tableColumn id="32" xr3:uid="{B246ADB6-24B4-4CD3-AA15-35A00ED6F3E1}" name="100 o más" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{675DCE43-4B7B-4173-9357-24FB5E7B690F}" name="Grupo_Edad" displayName="Grupo_Edad" ref="A1:B22" totalsRowShown="0">
+  <autoFilter ref="A1:B22" xr:uid="{6522A2E1-F3C3-4BE1-89EC-17AC6FBF6E6F}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{06A1D0F3-C61B-4B78-9076-0DC0444E5504}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{F736BF39-43A6-4846-ADA5-3E4650DD13B1}" name="Grupo Edad"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3048,51 +3136,51 @@
       </c>
     </row>
     <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="39" t="s">
+      <c r="E5" s="47"/>
+      <c r="F5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39" t="s">
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="39"/>
+      <c r="AB5" s="45"/>
     </row>
     <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
@@ -5258,8 +5346,8 @@
   </sheetPr>
   <dimension ref="A1:AH346"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:AF346"/>
+    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5301,101 +5389,101 @@
       </c>
       <c r="C2" s="28"/>
     </row>
-    <row r="5" spans="1:32" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="42" t="s">
         <v>380</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="43" t="s">
         <v>382</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="L5" s="47" t="s">
+      <c r="L5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="47" t="s">
+      <c r="N5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="47" t="s">
+      <c r="O5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="P5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="47" t="s">
+      <c r="Q5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="47" t="s">
+      <c r="S5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="47" t="s">
+      <c r="T5" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="47" t="s">
+      <c r="U5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="47" t="s">
+      <c r="V5" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="47" t="s">
+      <c r="W5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="47" t="s">
+      <c r="X5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Y5" s="47" t="s">
+      <c r="Y5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="Z5" s="47" t="s">
+      <c r="Z5" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AA5" s="47" t="s">
+      <c r="AA5" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AB5" s="47" t="s">
+      <c r="AB5" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="AC5" s="47" t="s">
+      <c r="AC5" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AD5" s="47" t="s">
+      <c r="AD5" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="AE5" s="47" t="s">
+      <c r="AE5" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AF5" s="47" t="s">
+      <c r="AF5" s="44" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5421,11 +5509,11 @@
       <c r="G6" s="31">
         <v>484697</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="39">
         <f>+G6/E6</f>
         <v>0.52490924764347102</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="39">
         <f>+F6/E6</f>
         <v>0.47509075235652898</v>
       </c>
@@ -5521,11 +5609,11 @@
       <c r="G7" s="31">
         <v>42408</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="39">
         <f t="shared" ref="H7:H70" si="0">+G7/E7</f>
         <v>0.52627137574148075</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="39">
         <f t="shared" ref="I7:I70" si="1">+F7/E7</f>
         <v>0.47372862425851925</v>
       </c>
@@ -5621,11 +5709,11 @@
       <c r="G8" s="31">
         <v>41183</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="39">
         <f t="shared" si="0"/>
         <v>0.51579329692901155</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="39">
         <f t="shared" si="1"/>
         <v>0.48420670307098845</v>
       </c>
@@ -5721,11 +5809,11 @@
       <c r="G9" s="31">
         <v>3736</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="39">
         <f t="shared" si="0"/>
         <v>0.51680730391478769</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="39">
         <f t="shared" si="1"/>
         <v>0.48319269608521231</v>
       </c>
@@ -5821,11 +5909,11 @@
       <c r="G10" s="31">
         <v>36365</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="39">
         <f t="shared" si="0"/>
         <v>0.51237794654305158</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="39">
         <f t="shared" si="1"/>
         <v>0.48762205345694842</v>
       </c>
@@ -5921,11 +6009,11 @@
       <c r="G11" s="31">
         <v>59487</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="39">
         <f t="shared" si="0"/>
         <v>0.51839619353039601</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="39">
         <f t="shared" si="1"/>
         <v>0.48160380646960399</v>
       </c>
@@ -6021,11 +6109,11 @@
       <c r="G12" s="31">
         <v>30031</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="39">
         <f t="shared" si="0"/>
         <v>0.51239570714395399</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="39">
         <f t="shared" si="1"/>
         <v>0.48760429285604601</v>
       </c>
@@ -6121,11 +6209,11 @@
       <c r="G13" s="31">
         <v>244663</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="39">
         <f t="shared" si="0"/>
         <v>0.52528377557307959</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="39">
         <f t="shared" si="1"/>
         <v>0.47471622442692041</v>
       </c>
@@ -6221,11 +6309,11 @@
       <c r="G14" s="31">
         <v>26143</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="39">
         <f t="shared" si="0"/>
         <v>0.50968962021367858</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="39">
         <f t="shared" si="1"/>
         <v>0.49031037978632147</v>
       </c>
@@ -6321,11 +6409,11 @@
       <c r="G15" s="31">
         <v>111408</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="39">
         <f t="shared" si="0"/>
         <v>0.51068043051761125</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="39">
         <f t="shared" si="1"/>
         <v>0.48931956948238875</v>
       </c>
@@ -6421,11 +6509,11 @@
       <c r="G16" s="31">
         <v>16586</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="39">
         <f t="shared" si="0"/>
         <v>0.52479038126878663</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="39">
         <f t="shared" si="1"/>
         <v>0.47520961873121342</v>
       </c>
@@ -6521,11 +6609,11 @@
       <c r="G17" s="31">
         <v>6312</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="39">
         <f t="shared" si="0"/>
         <v>0.49944611489159679</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="39">
         <f t="shared" si="1"/>
         <v>0.50055388510840326</v>
       </c>
@@ -6621,11 +6709,11 @@
       <c r="G18" s="31">
         <v>28426</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="39">
         <f t="shared" si="0"/>
         <v>0.48243440480635419</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="39">
         <f t="shared" si="1"/>
         <v>0.51756559519364587</v>
       </c>
@@ -6721,11 +6809,11 @@
       <c r="G19" s="31">
         <v>59865</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="39">
         <f t="shared" si="0"/>
         <v>0.51293365663904855</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="39">
         <f t="shared" si="1"/>
         <v>0.48706634336095139</v>
       </c>
@@ -6821,11 +6909,11 @@
       <c r="G20" s="31">
         <v>224820</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="39">
         <f t="shared" si="0"/>
         <v>0.51833612306159993</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="39">
         <f t="shared" si="1"/>
         <v>0.48166387693840002</v>
       </c>
@@ -6921,11 +7009,11 @@
       <c r="G21" s="31">
         <v>79454</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="39">
         <f t="shared" si="0"/>
         <v>0.51121462855966338</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="39">
         <f t="shared" si="1"/>
         <v>0.48878537144033662</v>
       </c>
@@ -7021,11 +7109,11 @@
       <c r="G22" s="31">
         <v>70294</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="39">
         <f t="shared" si="0"/>
         <v>0.51897790279592759</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="39">
         <f t="shared" si="1"/>
         <v>0.48102209720407246</v>
       </c>
@@ -7121,11 +7209,11 @@
       <c r="G23" s="31">
         <v>12615</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="39">
         <f t="shared" si="0"/>
         <v>0.50823899117682603</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="39">
         <f t="shared" si="1"/>
         <v>0.49176100882317392</v>
       </c>
@@ -7221,11 +7309,11 @@
       <c r="G24" s="31">
         <v>6156</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="39">
         <f t="shared" si="0"/>
         <v>0.50608352515619859</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="39">
         <f t="shared" si="1"/>
         <v>0.49391647484380136</v>
       </c>
@@ -7321,11 +7409,11 @@
       <c r="G25" s="31">
         <v>23005</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="39">
         <f t="shared" si="0"/>
         <v>0.50267671801595104</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="39">
         <f t="shared" si="1"/>
         <v>0.49732328198404896</v>
       </c>
@@ -7421,11 +7509,11 @@
       <c r="G26" s="31">
         <v>3740</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H26" s="39">
         <f t="shared" si="0"/>
         <v>0.51951659952771223</v>
       </c>
-      <c r="I26" s="42">
+      <c r="I26" s="39">
         <f t="shared" si="1"/>
         <v>0.48048340047228782</v>
       </c>
@@ -7521,11 +7609,11 @@
       <c r="G27" s="31">
         <v>6654</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="39">
         <f t="shared" si="0"/>
         <v>0.50685557586837293</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="39">
         <f t="shared" si="1"/>
         <v>0.49314442413162707</v>
       </c>
@@ -7621,11 +7709,11 @@
       <c r="G28" s="31">
         <v>6666</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H28" s="39">
         <f t="shared" si="0"/>
         <v>0.50676600273681005</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I28" s="39">
         <f t="shared" si="1"/>
         <v>0.49323399726318989</v>
       </c>
@@ -7721,11 +7809,11 @@
       <c r="G29" s="31">
         <v>20170</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="39">
         <f t="shared" si="0"/>
         <v>0.51135787445492342</v>
       </c>
-      <c r="I29" s="42">
+      <c r="I29" s="39">
         <f t="shared" si="1"/>
         <v>0.48864212554507658</v>
       </c>
@@ -7821,11 +7909,11 @@
       <c r="G30" s="31">
         <v>10454</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="39">
         <f t="shared" si="0"/>
         <v>0.4988309395428735</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="39">
         <f t="shared" si="1"/>
         <v>0.5011690604571265</v>
       </c>
@@ -7921,11 +8009,11 @@
       <c r="G31" s="31">
         <v>23651</v>
       </c>
-      <c r="H31" s="42">
+      <c r="H31" s="39">
         <f t="shared" si="0"/>
         <v>0.51354931167759588</v>
       </c>
-      <c r="I31" s="42">
+      <c r="I31" s="39">
         <f t="shared" si="1"/>
         <v>0.48645068832240412</v>
       </c>
@@ -8021,11 +8109,11 @@
       <c r="G32" s="31">
         <v>11238</v>
       </c>
-      <c r="H32" s="42">
+      <c r="H32" s="39">
         <f t="shared" si="0"/>
         <v>0.51890843607147807</v>
       </c>
-      <c r="I32" s="42">
+      <c r="I32" s="39">
         <f t="shared" si="1"/>
         <v>0.48109156392852198</v>
       </c>
@@ -8121,11 +8209,11 @@
       <c r="G33" s="31">
         <v>9089</v>
       </c>
-      <c r="H33" s="42">
+      <c r="H33" s="39">
         <f t="shared" si="0"/>
         <v>0.51021668350735372</v>
       </c>
-      <c r="I33" s="42">
+      <c r="I33" s="39">
         <f t="shared" si="1"/>
         <v>0.48978331649264623</v>
       </c>
@@ -8221,11 +8309,11 @@
       <c r="G34" s="31">
         <v>18862</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="39">
         <f t="shared" si="0"/>
         <v>0.50622651637144389</v>
       </c>
-      <c r="I34" s="42">
+      <c r="I34" s="39">
         <f t="shared" si="1"/>
         <v>0.49377348362855611</v>
       </c>
@@ -8321,11 +8409,11 @@
       <c r="G35" s="31">
         <v>6407</v>
       </c>
-      <c r="H35" s="42">
+      <c r="H35" s="39">
         <f t="shared" si="0"/>
         <v>0.51661022415739399</v>
       </c>
-      <c r="I35" s="42">
+      <c r="I35" s="39">
         <f t="shared" si="1"/>
         <v>0.48338977584260601</v>
       </c>
@@ -8421,11 +8509,11 @@
       <c r="G36" s="31">
         <v>14933</v>
       </c>
-      <c r="H36" s="42">
+      <c r="H36" s="39">
         <f t="shared" si="0"/>
         <v>0.51073944866269927</v>
       </c>
-      <c r="I36" s="42">
+      <c r="I36" s="39">
         <f t="shared" si="1"/>
         <v>0.48926055133730079</v>
       </c>
@@ -8521,11 +8609,11 @@
       <c r="G37" s="31">
         <v>4104</v>
       </c>
-      <c r="H37" s="42">
+      <c r="H37" s="39">
         <f t="shared" si="0"/>
         <v>0.52507676560900718</v>
       </c>
-      <c r="I37" s="42">
+      <c r="I37" s="39">
         <f t="shared" si="1"/>
         <v>0.47492323439099282</v>
       </c>
@@ -8621,11 +8709,11 @@
       <c r="G38" s="31">
         <v>12270</v>
       </c>
-      <c r="H38" s="42">
+      <c r="H38" s="39">
         <f t="shared" si="0"/>
         <v>0.5250545594591125</v>
       </c>
-      <c r="I38" s="42">
+      <c r="I38" s="39">
         <f t="shared" si="1"/>
         <v>0.4749454405408875</v>
       </c>
@@ -8721,11 +8809,11 @@
       <c r="G39" s="31">
         <v>7984</v>
       </c>
-      <c r="H39" s="42">
+      <c r="H39" s="39">
         <f t="shared" si="0"/>
         <v>0.51278098908156711</v>
       </c>
-      <c r="I39" s="42">
+      <c r="I39" s="39">
         <f t="shared" si="1"/>
         <v>0.48721901091843289</v>
       </c>
@@ -8821,11 +8909,11 @@
       <c r="G40" s="31">
         <v>5970</v>
       </c>
-      <c r="H40" s="42">
+      <c r="H40" s="39">
         <f t="shared" si="0"/>
         <v>0.50354251012145745</v>
       </c>
-      <c r="I40" s="42">
+      <c r="I40" s="39">
         <f t="shared" si="1"/>
         <v>0.49645748987854249</v>
       </c>
@@ -8921,11 +9009,11 @@
       <c r="G41" s="31">
         <v>10795</v>
       </c>
-      <c r="H41" s="42">
+      <c r="H41" s="39">
         <f t="shared" si="0"/>
         <v>0.49206855684200929</v>
       </c>
-      <c r="I41" s="42">
+      <c r="I41" s="39">
         <f t="shared" si="1"/>
         <v>0.50793144315799066</v>
       </c>
@@ -9021,11 +9109,11 @@
       <c r="G42" s="31">
         <v>16962</v>
       </c>
-      <c r="H42" s="42">
+      <c r="H42" s="39">
         <f t="shared" si="0"/>
         <v>0.50776829815895819</v>
       </c>
-      <c r="I42" s="42">
+      <c r="I42" s="39">
         <f t="shared" si="1"/>
         <v>0.49223170184104176</v>
       </c>
@@ -9121,11 +9209,11 @@
       <c r="G43" s="31">
         <v>6505</v>
       </c>
-      <c r="H43" s="42">
+      <c r="H43" s="39">
         <f t="shared" si="0"/>
         <v>0.51236609955891621</v>
       </c>
-      <c r="I43" s="42">
+      <c r="I43" s="39">
         <f t="shared" si="1"/>
         <v>0.48763390044108379</v>
       </c>
@@ -9221,11 +9309,11 @@
       <c r="G44" s="31">
         <v>12131</v>
       </c>
-      <c r="H44" s="42">
+      <c r="H44" s="39">
         <f t="shared" si="0"/>
         <v>0.50575335612440586</v>
       </c>
-      <c r="I44" s="42">
+      <c r="I44" s="39">
         <f t="shared" si="1"/>
         <v>0.49424664387559408</v>
       </c>
@@ -9321,11 +9409,11 @@
       <c r="G45" s="31">
         <v>5820</v>
       </c>
-      <c r="H45" s="42">
+      <c r="H45" s="39">
         <f t="shared" si="0"/>
         <v>0.51291090155988373</v>
       </c>
-      <c r="I45" s="42">
+      <c r="I45" s="39">
         <f t="shared" si="1"/>
         <v>0.48708909844011633</v>
       </c>
@@ -9421,11 +9509,11 @@
       <c r="G46" s="31">
         <v>2057</v>
       </c>
-      <c r="H46" s="42">
+      <c r="H46" s="39">
         <f t="shared" si="0"/>
         <v>0.50652548633341543</v>
       </c>
-      <c r="I46" s="42">
+      <c r="I46" s="39">
         <f t="shared" si="1"/>
         <v>0.49347451366658457</v>
       </c>
@@ -9521,11 +9609,11 @@
       <c r="G47" s="31">
         <v>50000</v>
       </c>
-      <c r="H47" s="42">
+      <c r="H47" s="39">
         <f t="shared" si="0"/>
         <v>0.51554364076919112</v>
       </c>
-      <c r="I47" s="42">
+      <c r="I47" s="39">
         <f t="shared" si="1"/>
         <v>0.48445635923080888</v>
       </c>
@@ -9621,11 +9709,11 @@
       <c r="G48" s="31">
         <v>14212</v>
       </c>
-      <c r="H48" s="42">
+      <c r="H48" s="39">
         <f t="shared" si="0"/>
         <v>0.52940957347737005</v>
       </c>
-      <c r="I48" s="42">
+      <c r="I48" s="39">
         <f t="shared" si="1"/>
         <v>0.47059042652262989</v>
       </c>
@@ -9721,11 +9809,11 @@
       <c r="G49" s="31">
         <v>39008</v>
       </c>
-      <c r="H49" s="42">
+      <c r="H49" s="39">
         <f t="shared" si="0"/>
         <v>0.53094502443207336</v>
       </c>
-      <c r="I49" s="42">
+      <c r="I49" s="39">
         <f t="shared" si="1"/>
         <v>0.46905497556792664</v>
       </c>
@@ -9821,11 +9909,11 @@
       <c r="G50" s="31">
         <v>24982</v>
       </c>
-      <c r="H50" s="42">
+      <c r="H50" s="39">
         <f t="shared" si="0"/>
         <v>0.51406465419676106</v>
       </c>
-      <c r="I50" s="42">
+      <c r="I50" s="39">
         <f t="shared" si="1"/>
         <v>0.48593534580323888</v>
       </c>
@@ -9921,11 +10009,11 @@
       <c r="G51" s="31">
         <v>9693</v>
       </c>
-      <c r="H51" s="42">
+      <c r="H51" s="39">
         <f t="shared" si="0"/>
         <v>0.52281553398058256</v>
       </c>
-      <c r="I51" s="42">
+      <c r="I51" s="39">
         <f t="shared" si="1"/>
         <v>0.4771844660194175</v>
       </c>
@@ -10021,11 +10109,11 @@
       <c r="G52" s="31">
         <v>47636</v>
       </c>
-      <c r="H52" s="42">
+      <c r="H52" s="39">
         <f t="shared" si="0"/>
         <v>0.51819378419833129</v>
       </c>
-      <c r="I52" s="42">
+      <c r="I52" s="39">
         <f t="shared" si="1"/>
         <v>0.48180621580166871</v>
       </c>
@@ -10121,11 +10209,11 @@
       <c r="G53" s="31">
         <v>30055</v>
       </c>
-      <c r="H53" s="42">
+      <c r="H53" s="39">
         <f t="shared" si="0"/>
         <v>0.51605425824175821</v>
       </c>
-      <c r="I53" s="42">
+      <c r="I53" s="39">
         <f t="shared" si="1"/>
         <v>0.48394574175824173</v>
       </c>
@@ -10221,11 +10309,11 @@
       <c r="G54" s="31">
         <v>4440</v>
       </c>
-      <c r="H54" s="42">
+      <c r="H54" s="39">
         <f t="shared" si="0"/>
         <v>0.50511945392491464</v>
       </c>
-      <c r="I54" s="42">
+      <c r="I54" s="39">
         <f t="shared" si="1"/>
         <v>0.4948805460750853</v>
       </c>
@@ -10321,11 +10409,11 @@
       <c r="G55" s="31">
         <v>17100</v>
       </c>
-      <c r="H55" s="42">
+      <c r="H55" s="39">
         <f t="shared" si="0"/>
         <v>0.51495166681723736</v>
       </c>
-      <c r="I55" s="42">
+      <c r="I55" s="39">
         <f t="shared" si="1"/>
         <v>0.48504833318276269</v>
       </c>
@@ -10421,11 +10509,11 @@
       <c r="G56" s="31">
         <v>4835</v>
       </c>
-      <c r="H56" s="42">
+      <c r="H56" s="39">
         <f t="shared" si="0"/>
         <v>0.51007490241586662</v>
       </c>
-      <c r="I56" s="42">
+      <c r="I56" s="39">
         <f t="shared" si="1"/>
         <v>0.48992509758413333</v>
       </c>
@@ -10521,11 +10609,11 @@
       <c r="G57" s="31">
         <v>12016</v>
       </c>
-      <c r="H57" s="42">
+      <c r="H57" s="39">
         <f t="shared" si="0"/>
         <v>0.51730669881177893</v>
       </c>
-      <c r="I57" s="42">
+      <c r="I57" s="39">
         <f t="shared" si="1"/>
         <v>0.48269330118822112</v>
       </c>
@@ -10621,11 +10709,11 @@
       <c r="G58" s="31">
         <v>17381</v>
       </c>
-      <c r="H58" s="42">
+      <c r="H58" s="39">
         <f t="shared" si="0"/>
         <v>0.4973389035137919</v>
       </c>
-      <c r="I58" s="42">
+      <c r="I58" s="39">
         <f t="shared" si="1"/>
         <v>0.50266109648620805</v>
       </c>
@@ -10721,11 +10809,11 @@
       <c r="G59" s="31">
         <v>16531</v>
       </c>
-      <c r="H59" s="42">
+      <c r="H59" s="39">
         <f t="shared" si="0"/>
         <v>0.51525730137455972</v>
       </c>
-      <c r="I59" s="42">
+      <c r="I59" s="39">
         <f t="shared" si="1"/>
         <v>0.48474269862544028</v>
       </c>
@@ -10821,11 +10909,11 @@
       <c r="G60" s="31">
         <v>8284</v>
       </c>
-      <c r="H60" s="42">
+      <c r="H60" s="39">
         <f t="shared" si="0"/>
         <v>0.52022104998744034</v>
       </c>
-      <c r="I60" s="42">
+      <c r="I60" s="39">
         <f t="shared" si="1"/>
         <v>0.47977895001255966</v>
       </c>
@@ -10921,11 +11009,11 @@
       <c r="G61" s="31">
         <v>12379</v>
       </c>
-      <c r="H61" s="42">
+      <c r="H61" s="39">
         <f t="shared" si="0"/>
         <v>0.51531929065023729</v>
       </c>
-      <c r="I61" s="42">
+      <c r="I61" s="39">
         <f t="shared" si="1"/>
         <v>0.48468070934976271</v>
       </c>
@@ -11021,11 +11109,11 @@
       <c r="G62" s="31">
         <v>10070</v>
       </c>
-      <c r="H62" s="42">
+      <c r="H62" s="39">
         <f t="shared" si="0"/>
         <v>0.51662220398112046</v>
       </c>
-      <c r="I62" s="42">
+      <c r="I62" s="39">
         <f t="shared" si="1"/>
         <v>0.48337779601887954</v>
       </c>
@@ -11121,11 +11209,11 @@
       <c r="G63" s="31">
         <v>77948</v>
       </c>
-      <c r="H63" s="42">
+      <c r="H63" s="39">
         <f t="shared" si="0"/>
         <v>0.49866613781323371</v>
       </c>
-      <c r="I63" s="42">
+      <c r="I63" s="39">
         <f t="shared" si="1"/>
         <v>0.50133386218676634</v>
       </c>
@@ -11221,11 +11309,11 @@
       <c r="G64" s="31">
         <v>56522</v>
       </c>
-      <c r="H64" s="42">
+      <c r="H64" s="39">
         <f t="shared" si="0"/>
         <v>0.50117042028728498</v>
       </c>
-      <c r="I64" s="42">
+      <c r="I64" s="39">
         <f t="shared" si="1"/>
         <v>0.49882957971271502</v>
       </c>
@@ -11321,11 +11409,11 @@
       <c r="G65" s="31">
         <v>11526</v>
       </c>
-      <c r="H65" s="42">
+      <c r="H65" s="39">
         <f t="shared" si="0"/>
         <v>0.50076030759873136</v>
       </c>
-      <c r="I65" s="42">
+      <c r="I65" s="39">
         <f t="shared" si="1"/>
         <v>0.49923969240126864</v>
       </c>
@@ -11421,11 +11509,11 @@
       <c r="G66" s="31">
         <v>11425</v>
       </c>
-      <c r="H66" s="42">
+      <c r="H66" s="39">
         <f t="shared" si="0"/>
         <v>0.49743120863810519</v>
       </c>
-      <c r="I66" s="42">
+      <c r="I66" s="39">
         <f t="shared" si="1"/>
         <v>0.50256879136189481</v>
       </c>
@@ -11521,11 +11609,11 @@
       <c r="G67" s="31">
         <v>22622</v>
       </c>
-      <c r="H67" s="42">
+      <c r="H67" s="39">
         <f t="shared" si="0"/>
         <v>0.49912847781479602</v>
       </c>
-      <c r="I67" s="42">
+      <c r="I67" s="39">
         <f t="shared" si="1"/>
         <v>0.50087152218520403</v>
       </c>
@@ -11621,11 +11709,11 @@
       <c r="G68" s="31">
         <v>28869</v>
       </c>
-      <c r="H68" s="42">
+      <c r="H68" s="39">
         <f t="shared" si="0"/>
         <v>0.50389234099001601</v>
       </c>
-      <c r="I68" s="42">
+      <c r="I68" s="39">
         <f t="shared" si="1"/>
         <v>0.49610765900998394</v>
       </c>
@@ -11721,11 +11809,11 @@
       <c r="G69" s="31">
         <v>23173</v>
       </c>
-      <c r="H69" s="42">
+      <c r="H69" s="39">
         <f t="shared" si="0"/>
         <v>0.49657137959113701</v>
       </c>
-      <c r="I69" s="42">
+      <c r="I69" s="39">
         <f t="shared" si="1"/>
         <v>0.50342862040886294</v>
       </c>
@@ -11821,11 +11909,11 @@
       <c r="G70" s="31">
         <v>7843</v>
       </c>
-      <c r="H70" s="42">
+      <c r="H70" s="39">
         <f t="shared" si="0"/>
         <v>0.4914776287755358</v>
       </c>
-      <c r="I70" s="42">
+      <c r="I70" s="39">
         <f t="shared" si="1"/>
         <v>0.5085223712244642</v>
       </c>
@@ -11921,11 +12009,11 @@
       <c r="G71" s="31">
         <v>31555</v>
       </c>
-      <c r="H71" s="42">
+      <c r="H71" s="39">
         <f t="shared" ref="H71:H134" si="2">+G71/E71</f>
         <v>0.50246015190840909</v>
       </c>
-      <c r="I71" s="42">
+      <c r="I71" s="39">
         <f t="shared" ref="I71:I134" si="3">+F71/E71</f>
         <v>0.49753984809159091</v>
       </c>
@@ -12021,11 +12109,11 @@
       <c r="G72" s="31">
         <v>9169</v>
       </c>
-      <c r="H72" s="42">
+      <c r="H72" s="39">
         <f t="shared" si="2"/>
         <v>0.49989096063678989</v>
       </c>
-      <c r="I72" s="42">
+      <c r="I72" s="39">
         <f t="shared" si="3"/>
         <v>0.50010903936321016</v>
       </c>
@@ -12121,11 +12209,11 @@
       <c r="G73" s="31">
         <v>33612</v>
       </c>
-      <c r="H73" s="42">
+      <c r="H73" s="39">
         <f t="shared" si="2"/>
         <v>0.51025458078423636</v>
       </c>
-      <c r="I73" s="42">
+      <c r="I73" s="39">
         <f t="shared" si="3"/>
         <v>0.48974541921576364</v>
       </c>
@@ -12221,11 +12309,11 @@
       <c r="G74" s="31">
         <v>8359</v>
       </c>
-      <c r="H74" s="42">
+      <c r="H74" s="39">
         <f t="shared" si="2"/>
         <v>0.50038910505836576</v>
       </c>
-      <c r="I74" s="42">
+      <c r="I74" s="39">
         <f t="shared" si="3"/>
         <v>0.49961089494163424</v>
       </c>
@@ -12321,11 +12409,11 @@
       <c r="G75" s="31">
         <v>36956</v>
       </c>
-      <c r="H75" s="42">
+      <c r="H75" s="39">
         <f t="shared" si="2"/>
         <v>0.50687843750428618</v>
       </c>
-      <c r="I75" s="42">
+      <c r="I75" s="39">
         <f t="shared" si="3"/>
         <v>0.49312156249571382</v>
       </c>
@@ -12421,11 +12509,11 @@
       <c r="G76" s="31">
         <v>8095</v>
       </c>
-      <c r="H76" s="42">
+      <c r="H76" s="39">
         <f t="shared" si="2"/>
         <v>0.49864481951459899</v>
       </c>
-      <c r="I76" s="42">
+      <c r="I76" s="39">
         <f t="shared" si="3"/>
         <v>0.50135518048540106</v>
       </c>
@@ -12521,11 +12609,11 @@
       <c r="G77" s="31">
         <v>20835</v>
       </c>
-      <c r="H77" s="42">
+      <c r="H77" s="39">
         <f t="shared" si="2"/>
         <v>0.50375976208322248</v>
       </c>
-      <c r="I77" s="42">
+      <c r="I77" s="39">
         <f t="shared" si="3"/>
         <v>0.49624023791677746</v>
       </c>
@@ -12621,11 +12709,11 @@
       <c r="G78" s="31">
         <v>29878</v>
       </c>
-      <c r="H78" s="42">
+      <c r="H78" s="39">
         <f t="shared" si="2"/>
         <v>0.51269819479717205</v>
       </c>
-      <c r="I78" s="42">
+      <c r="I78" s="39">
         <f t="shared" si="3"/>
         <v>0.4873018052028279</v>
       </c>
@@ -12721,11 +12809,11 @@
       <c r="G79" s="31">
         <v>10184</v>
       </c>
-      <c r="H79" s="42">
+      <c r="H79" s="39">
         <f t="shared" si="2"/>
         <v>0.51690183737691608</v>
       </c>
-      <c r="I79" s="42">
+      <c r="I79" s="39">
         <f t="shared" si="3"/>
         <v>0.48309816262308397</v>
       </c>
@@ -12821,11 +12909,11 @@
       <c r="G80" s="31">
         <v>12933</v>
       </c>
-      <c r="H80" s="42">
+      <c r="H80" s="39">
         <f t="shared" si="2"/>
         <v>0.51823208847571722</v>
       </c>
-      <c r="I80" s="42">
+      <c r="I80" s="39">
         <f t="shared" si="3"/>
         <v>0.48176791152428272</v>
       </c>
@@ -12921,11 +13009,11 @@
       <c r="G81" s="31">
         <v>6392</v>
       </c>
-      <c r="H81" s="42">
+      <c r="H81" s="39">
         <f t="shared" si="2"/>
         <v>0.50565619808559448</v>
       </c>
-      <c r="I81" s="42">
+      <c r="I81" s="39">
         <f t="shared" si="3"/>
         <v>0.49434380191440552</v>
       </c>
@@ -13021,11 +13109,11 @@
       <c r="G82" s="31">
         <v>12658</v>
       </c>
-      <c r="H82" s="42">
+      <c r="H82" s="39">
         <f t="shared" si="2"/>
         <v>0.50725334615692874</v>
       </c>
-      <c r="I82" s="42">
+      <c r="I82" s="39">
         <f t="shared" si="3"/>
         <v>0.49274665384307126</v>
       </c>
@@ -13121,11 +13209,11 @@
       <c r="G83" s="31">
         <v>5022</v>
       </c>
-      <c r="H83" s="42">
+      <c r="H83" s="39">
         <f t="shared" si="2"/>
         <v>0.49614700652045052</v>
       </c>
-      <c r="I83" s="42">
+      <c r="I83" s="39">
         <f t="shared" si="3"/>
         <v>0.50385299347954948</v>
       </c>
@@ -13221,11 +13309,11 @@
       <c r="G84" s="31">
         <v>27247</v>
       </c>
-      <c r="H84" s="42">
+      <c r="H84" s="39">
         <f t="shared" si="2"/>
         <v>0.50713793809444041</v>
       </c>
-      <c r="I84" s="42">
+      <c r="I84" s="39">
         <f t="shared" si="3"/>
         <v>0.49286206190555959</v>
       </c>
@@ -13321,11 +13409,11 @@
       <c r="G85" s="31">
         <v>14799</v>
       </c>
-      <c r="H85" s="42">
+      <c r="H85" s="39">
         <f t="shared" si="2"/>
         <v>0.49584533940896602</v>
       </c>
-      <c r="I85" s="42">
+      <c r="I85" s="39">
         <f t="shared" si="3"/>
         <v>0.50415466059103398</v>
       </c>
@@ -13421,11 +13509,11 @@
       <c r="G86" s="31">
         <v>11998</v>
       </c>
-      <c r="H86" s="42">
+      <c r="H86" s="39">
         <f t="shared" si="2"/>
         <v>0.50409646653501949</v>
       </c>
-      <c r="I86" s="42">
+      <c r="I86" s="39">
         <f t="shared" si="3"/>
         <v>0.49590353346498045</v>
       </c>
@@ -13521,11 +13609,11 @@
       <c r="G87" s="31">
         <v>9501</v>
       </c>
-      <c r="H87" s="42">
+      <c r="H87" s="39">
         <f t="shared" si="2"/>
         <v>0.50389817024661898</v>
       </c>
-      <c r="I87" s="42">
+      <c r="I87" s="39">
         <f t="shared" si="3"/>
         <v>0.49610182975338107</v>
       </c>
@@ -13621,11 +13709,11 @@
       <c r="G88" s="31">
         <v>8226</v>
       </c>
-      <c r="H88" s="42">
+      <c r="H88" s="39">
         <f t="shared" si="2"/>
         <v>0.50204455294476658</v>
       </c>
-      <c r="I88" s="42">
+      <c r="I88" s="39">
         <f t="shared" si="3"/>
         <v>0.49795544705523342</v>
       </c>
@@ -13721,11 +13809,11 @@
       <c r="G89" s="31">
         <v>12557</v>
       </c>
-      <c r="H89" s="42">
+      <c r="H89" s="39">
         <f t="shared" si="2"/>
         <v>0.49187198871871207</v>
       </c>
-      <c r="I89" s="42">
+      <c r="I89" s="39">
         <f t="shared" si="3"/>
         <v>0.50812801128128793</v>
       </c>
@@ -13821,11 +13909,11 @@
       <c r="G90" s="31">
         <v>18793</v>
       </c>
-      <c r="H90" s="42">
+      <c r="H90" s="39">
         <f t="shared" si="2"/>
         <v>0.51552641685411749</v>
       </c>
-      <c r="I90" s="42">
+      <c r="I90" s="39">
         <f t="shared" si="3"/>
         <v>0.48447358314588246</v>
       </c>
@@ -13921,11 +14009,11 @@
       <c r="G91" s="31">
         <v>46351</v>
       </c>
-      <c r="H91" s="42">
+      <c r="H91" s="39">
         <f t="shared" si="2"/>
         <v>0.5230781384011195</v>
       </c>
-      <c r="I91" s="42">
+      <c r="I91" s="39">
         <f t="shared" si="3"/>
         <v>0.4769218615988805</v>
       </c>
@@ -14021,11 +14109,11 @@
       <c r="G92" s="31">
         <v>2118</v>
       </c>
-      <c r="H92" s="42">
+      <c r="H92" s="39">
         <f t="shared" si="2"/>
         <v>0.52064896755162238</v>
       </c>
-      <c r="I92" s="42">
+      <c r="I92" s="39">
         <f t="shared" si="3"/>
         <v>0.47935103244837757</v>
       </c>
@@ -14121,11 +14209,11 @@
       <c r="G93" s="31">
         <v>1215</v>
       </c>
-      <c r="H93" s="42">
+      <c r="H93" s="39">
         <f t="shared" si="2"/>
         <v>0.51265822784810122</v>
       </c>
-      <c r="I93" s="42">
+      <c r="I93" s="39">
         <f t="shared" si="3"/>
         <v>0.48734177215189872</v>
       </c>
@@ -14221,11 +14309,11 @@
       <c r="G94" s="31">
         <v>11353</v>
       </c>
-      <c r="H94" s="42">
+      <c r="H94" s="39">
         <f t="shared" si="2"/>
         <v>0.53340537492952456</v>
       </c>
-      <c r="I94" s="42">
+      <c r="I94" s="39">
         <f t="shared" si="3"/>
         <v>0.4665946250704755</v>
       </c>
@@ -14321,11 +14409,11 @@
       <c r="G95" s="31">
         <v>40029</v>
       </c>
-      <c r="H95" s="42">
+      <c r="H95" s="39">
         <f t="shared" si="2"/>
         <v>0.53067744929073313</v>
       </c>
-      <c r="I95" s="42">
+      <c r="I95" s="39">
         <f t="shared" si="3"/>
         <v>0.46932255070926687</v>
       </c>
@@ -14421,11 +14509,11 @@
       <c r="G96" s="31">
         <v>30491</v>
       </c>
-      <c r="H96" s="42">
+      <c r="H96" s="39">
         <f t="shared" si="2"/>
         <v>0.53510819395939002</v>
       </c>
-      <c r="I96" s="42">
+      <c r="I96" s="39">
         <f t="shared" si="3"/>
         <v>0.46489180604061003</v>
       </c>
@@ -14521,11 +14609,11 @@
       <c r="G97" s="31">
         <v>4850</v>
       </c>
-      <c r="H97" s="42">
+      <c r="H97" s="39">
         <f t="shared" si="2"/>
         <v>0.51568314726209463</v>
       </c>
-      <c r="I97" s="42">
+      <c r="I97" s="39">
         <f t="shared" si="3"/>
         <v>0.48431685273790537</v>
       </c>
@@ -14621,11 +14709,11 @@
       <c r="G98" s="31">
         <v>3430</v>
       </c>
-      <c r="H98" s="42">
+      <c r="H98" s="39">
         <f t="shared" si="2"/>
         <v>0.51961823966065745</v>
       </c>
-      <c r="I98" s="42">
+      <c r="I98" s="39">
         <f t="shared" si="3"/>
         <v>0.48038176033934255</v>
       </c>
@@ -14721,11 +14809,11 @@
       <c r="G99" s="31">
         <v>7028</v>
       </c>
-      <c r="H99" s="42">
+      <c r="H99" s="39">
         <f t="shared" si="2"/>
         <v>0.53477400700045652</v>
       </c>
-      <c r="I99" s="42">
+      <c r="I99" s="39">
         <f t="shared" si="3"/>
         <v>0.46522599299954343</v>
       </c>
@@ -14821,11 +14909,11 @@
       <c r="G100" s="31">
         <v>7808</v>
       </c>
-      <c r="H100" s="42">
+      <c r="H100" s="39">
         <f t="shared" si="2"/>
         <v>0.51787490880148568</v>
       </c>
-      <c r="I100" s="42">
+      <c r="I100" s="39">
         <f t="shared" si="3"/>
         <v>0.48212509119851427</v>
       </c>
@@ -14921,11 +15009,11 @@
       <c r="G101" s="31">
         <v>1994</v>
       </c>
-      <c r="H101" s="42">
+      <c r="H101" s="39">
         <f t="shared" si="2"/>
         <v>0.50815494393476046</v>
       </c>
-      <c r="I101" s="42">
+      <c r="I101" s="39">
         <f t="shared" si="3"/>
         <v>0.49184505606523954</v>
       </c>
@@ -15021,11 +15109,11 @@
       <c r="G102" s="31">
         <v>7683</v>
       </c>
-      <c r="H102" s="42">
+      <c r="H102" s="39">
         <f t="shared" si="2"/>
         <v>0.53217427443374665</v>
       </c>
-      <c r="I102" s="42">
+      <c r="I102" s="39">
         <f t="shared" si="3"/>
         <v>0.4678257255662534</v>
       </c>
@@ -15121,11 +15209,11 @@
       <c r="G103" s="31">
         <v>15049</v>
       </c>
-      <c r="H103" s="42">
+      <c r="H103" s="39">
         <f t="shared" si="2"/>
         <v>0.50547494289936856</v>
       </c>
-      <c r="I103" s="42">
+      <c r="I103" s="39">
         <f t="shared" si="3"/>
         <v>0.49452505710063149</v>
       </c>
@@ -15221,11 +15309,11 @@
       <c r="G104" s="31">
         <v>2970</v>
       </c>
-      <c r="H104" s="42">
+      <c r="H104" s="39">
         <f t="shared" si="2"/>
         <v>0.51030927835051543</v>
       </c>
-      <c r="I104" s="42">
+      <c r="I104" s="39">
         <f t="shared" si="3"/>
         <v>0.48969072164948452</v>
       </c>
@@ -15321,11 +15409,11 @@
       <c r="G105" s="31">
         <v>3661</v>
       </c>
-      <c r="H105" s="42">
+      <c r="H105" s="39">
         <f t="shared" si="2"/>
         <v>0.50157555829565692</v>
       </c>
-      <c r="I105" s="42">
+      <c r="I105" s="39">
         <f t="shared" si="3"/>
         <v>0.49842444170434308</v>
       </c>
@@ -15421,11 +15509,11 @@
       <c r="G106" s="31">
         <v>1364</v>
       </c>
-      <c r="H106" s="42">
+      <c r="H106" s="39">
         <f t="shared" si="2"/>
         <v>0.52120748949178453</v>
       </c>
-      <c r="I106" s="42">
+      <c r="I106" s="39">
         <f t="shared" si="3"/>
         <v>0.47879251050821553</v>
       </c>
@@ -15521,11 +15609,11 @@
       <c r="G107" s="31">
         <v>6119</v>
       </c>
-      <c r="H107" s="42">
+      <c r="H107" s="39">
         <f t="shared" si="2"/>
         <v>0.50312448610425919</v>
       </c>
-      <c r="I107" s="42">
+      <c r="I107" s="39">
         <f t="shared" si="3"/>
         <v>0.49687551389574081</v>
       </c>
@@ -15621,11 +15709,11 @@
       <c r="G108" s="31">
         <v>5503</v>
       </c>
-      <c r="H108" s="42">
+      <c r="H108" s="39">
         <f t="shared" si="2"/>
         <v>0.51405885100420368</v>
       </c>
-      <c r="I108" s="42">
+      <c r="I108" s="39">
         <f t="shared" si="3"/>
         <v>0.48594114899579638</v>
       </c>
@@ -15721,11 +15809,11 @@
       <c r="G109" s="31">
         <v>21302</v>
       </c>
-      <c r="H109" s="42">
+      <c r="H109" s="39">
         <f t="shared" si="2"/>
         <v>0.50868018243904767</v>
       </c>
-      <c r="I109" s="42">
+      <c r="I109" s="39">
         <f t="shared" si="3"/>
         <v>0.49131981756095233</v>
       </c>
@@ -15821,11 +15909,11 @@
       <c r="G110" s="31">
         <v>56062</v>
       </c>
-      <c r="H110" s="42">
+      <c r="H110" s="39">
         <f t="shared" si="2"/>
         <v>0.5393066030475604</v>
       </c>
-      <c r="I110" s="42">
+      <c r="I110" s="39">
         <f t="shared" si="3"/>
         <v>0.4606933969524396</v>
       </c>
@@ -15921,11 +16009,11 @@
       <c r="G111" s="31">
         <v>19311</v>
       </c>
-      <c r="H111" s="42">
+      <c r="H111" s="39">
         <f t="shared" si="2"/>
         <v>0.53464935352584508</v>
       </c>
-      <c r="I111" s="42">
+      <c r="I111" s="39">
         <f t="shared" si="3"/>
         <v>0.46535064647415486</v>
       </c>
@@ -16021,11 +16109,11 @@
       <c r="G112" s="31">
         <v>30785</v>
       </c>
-      <c r="H112" s="42">
+      <c r="H112" s="39">
         <f t="shared" si="2"/>
         <v>0.53174767678861368</v>
       </c>
-      <c r="I112" s="42">
+      <c r="I112" s="39">
         <f t="shared" si="3"/>
         <v>0.46825232321138632</v>
       </c>
@@ -16121,11 +16209,11 @@
       <c r="G113" s="31">
         <v>14554</v>
       </c>
-      <c r="H113" s="42">
+      <c r="H113" s="39">
         <f t="shared" si="2"/>
         <v>0.53935665579602732</v>
       </c>
-      <c r="I113" s="42">
+      <c r="I113" s="39">
         <f t="shared" si="3"/>
         <v>0.46064334420397274</v>
       </c>
@@ -16221,11 +16309,11 @@
       <c r="G114" s="31">
         <v>55586</v>
       </c>
-      <c r="H114" s="42">
+      <c r="H114" s="39">
         <f t="shared" si="2"/>
         <v>0.52629784977797134</v>
       </c>
-      <c r="I114" s="42">
+      <c r="I114" s="39">
         <f t="shared" si="3"/>
         <v>0.47370215022202866</v>
       </c>
@@ -16321,11 +16409,11 @@
       <c r="G115" s="31">
         <v>28664</v>
       </c>
-      <c r="H115" s="42">
+      <c r="H115" s="39">
         <f t="shared" si="2"/>
         <v>0.52104048134077396</v>
       </c>
-      <c r="I115" s="42">
+      <c r="I115" s="39">
         <f t="shared" si="3"/>
         <v>0.47895951865922598</v>
       </c>
@@ -16421,11 +16509,11 @@
       <c r="G116" s="31">
         <v>11651</v>
       </c>
-      <c r="H116" s="42">
+      <c r="H116" s="39">
         <f t="shared" si="2"/>
         <v>0.52064527661095716</v>
       </c>
-      <c r="I116" s="42">
+      <c r="I116" s="39">
         <f t="shared" si="3"/>
         <v>0.47935472338904284</v>
       </c>
@@ -16521,11 +16609,11 @@
       <c r="G117" s="31">
         <v>5663</v>
       </c>
-      <c r="H117" s="42">
+      <c r="H117" s="39">
         <f t="shared" si="2"/>
         <v>0.53364116094986802</v>
       </c>
-      <c r="I117" s="42">
+      <c r="I117" s="39">
         <f t="shared" si="3"/>
         <v>0.46635883905013192</v>
       </c>
@@ -16621,11 +16709,11 @@
       <c r="G118" s="31">
         <v>95062</v>
       </c>
-      <c r="H118" s="42">
+      <c r="H118" s="39">
         <f t="shared" si="2"/>
         <v>0.5260589023054022</v>
       </c>
-      <c r="I118" s="42">
+      <c r="I118" s="39">
         <f t="shared" si="3"/>
         <v>0.47394109769459786</v>
       </c>
@@ -16721,11 +16809,11 @@
       <c r="G119" s="31">
         <v>10227</v>
       </c>
-      <c r="H119" s="42">
+      <c r="H119" s="39">
         <f t="shared" si="2"/>
         <v>0.52624266748996607</v>
       </c>
-      <c r="I119" s="42">
+      <c r="I119" s="39">
         <f t="shared" si="3"/>
         <v>0.47375733251003393</v>
       </c>
@@ -16821,11 +16909,11 @@
       <c r="G120" s="31">
         <v>18696</v>
       </c>
-      <c r="H120" s="42">
+      <c r="H120" s="39">
         <f t="shared" si="2"/>
         <v>0.53325727324586425</v>
       </c>
-      <c r="I120" s="42">
+      <c r="I120" s="39">
         <f t="shared" si="3"/>
         <v>0.46674272675413575</v>
       </c>
@@ -16921,11 +17009,11 @@
       <c r="G121" s="31">
         <v>16003</v>
       </c>
-      <c r="H121" s="42">
+      <c r="H121" s="39">
         <f t="shared" si="2"/>
         <v>0.52947988353626252</v>
       </c>
-      <c r="I121" s="42">
+      <c r="I121" s="39">
         <f t="shared" si="3"/>
         <v>0.47052011646373743</v>
       </c>
@@ -17021,11 +17109,11 @@
       <c r="G122" s="31">
         <v>4411</v>
       </c>
-      <c r="H122" s="42">
+      <c r="H122" s="39">
         <f t="shared" si="2"/>
         <v>0.52468181277506842</v>
       </c>
-      <c r="I122" s="42">
+      <c r="I122" s="39">
         <f t="shared" si="3"/>
         <v>0.47531818722493163</v>
       </c>
@@ -17121,11 +17209,11 @@
       <c r="G123" s="31">
         <v>12606</v>
       </c>
-      <c r="H123" s="42">
+      <c r="H123" s="39">
         <f t="shared" si="2"/>
         <v>0.5473016975643642</v>
       </c>
-      <c r="I123" s="42">
+      <c r="I123" s="39">
         <f t="shared" si="3"/>
         <v>0.4526983024356358</v>
       </c>
@@ -17221,11 +17309,11 @@
       <c r="G124" s="31">
         <v>8604</v>
       </c>
-      <c r="H124" s="42">
+      <c r="H124" s="39">
         <f t="shared" si="2"/>
         <v>0.57559539737757559</v>
       </c>
-      <c r="I124" s="42">
+      <c r="I124" s="39">
         <f t="shared" si="3"/>
         <v>0.42440460262242441</v>
       </c>
@@ -17321,11 +17409,11 @@
       <c r="G125" s="31">
         <v>4494</v>
       </c>
-      <c r="H125" s="42">
+      <c r="H125" s="39">
         <f t="shared" si="2"/>
         <v>0.56965394853593609</v>
       </c>
-      <c r="I125" s="42">
+      <c r="I125" s="39">
         <f t="shared" si="3"/>
         <v>0.43034605146406391</v>
       </c>
@@ -17421,11 +17509,11 @@
       <c r="G126" s="31">
         <v>28353</v>
       </c>
-      <c r="H126" s="42">
+      <c r="H126" s="39">
         <f t="shared" si="2"/>
         <v>0.54705950451493401</v>
       </c>
-      <c r="I126" s="42">
+      <c r="I126" s="39">
         <f t="shared" si="3"/>
         <v>0.45294049548506599</v>
       </c>
@@ -17521,11 +17609,11 @@
       <c r="G127" s="31">
         <v>4137</v>
       </c>
-      <c r="H127" s="42">
+      <c r="H127" s="39">
         <f t="shared" si="2"/>
         <v>0.52400253324889168</v>
       </c>
-      <c r="I127" s="42">
+      <c r="I127" s="39">
         <f t="shared" si="3"/>
         <v>0.47599746675110832</v>
       </c>
@@ -17621,11 +17709,11 @@
       <c r="G128" s="31">
         <v>9504</v>
       </c>
-      <c r="H128" s="42">
+      <c r="H128" s="39">
         <f t="shared" si="2"/>
         <v>0.54803367546995729</v>
       </c>
-      <c r="I128" s="42">
+      <c r="I128" s="39">
         <f t="shared" si="3"/>
         <v>0.45196632453004265</v>
       </c>
@@ -17721,11 +17809,11 @@
       <c r="G129" s="31">
         <v>16000</v>
       </c>
-      <c r="H129" s="42">
+      <c r="H129" s="39">
         <f t="shared" si="2"/>
         <v>0.54471793824260373</v>
       </c>
-      <c r="I129" s="42">
+      <c r="I129" s="39">
         <f t="shared" si="3"/>
         <v>0.45528206175739627</v>
       </c>
@@ -17821,11 +17909,11 @@
       <c r="G130" s="31">
         <v>8542</v>
       </c>
-      <c r="H130" s="42">
+      <c r="H130" s="39">
         <f t="shared" si="2"/>
         <v>0.54324599338590684</v>
       </c>
-      <c r="I130" s="42">
+      <c r="I130" s="39">
         <f t="shared" si="3"/>
         <v>0.4567540066140931</v>
       </c>
@@ -17921,11 +18009,11 @@
       <c r="G131" s="31">
         <v>20759</v>
       </c>
-      <c r="H131" s="42">
+      <c r="H131" s="39">
         <f t="shared" si="2"/>
         <v>0.49259645958900861</v>
       </c>
-      <c r="I131" s="42">
+      <c r="I131" s="39">
         <f t="shared" si="3"/>
         <v>0.50740354041099145</v>
       </c>
@@ -18021,11 +18109,11 @@
       <c r="G132" s="31">
         <v>7486</v>
       </c>
-      <c r="H132" s="42">
+      <c r="H132" s="39">
         <f t="shared" si="2"/>
         <v>0.55657992565055758</v>
       </c>
-      <c r="I132" s="42">
+      <c r="I132" s="39">
         <f t="shared" si="3"/>
         <v>0.44342007434944236</v>
       </c>
@@ -18121,11 +18209,11 @@
       <c r="G133" s="31">
         <v>7737</v>
       </c>
-      <c r="H133" s="42">
+      <c r="H133" s="39">
         <f t="shared" si="2"/>
         <v>0.54802379940501489</v>
       </c>
-      <c r="I133" s="42">
+      <c r="I133" s="39">
         <f t="shared" si="3"/>
         <v>0.45197620059498511</v>
       </c>
@@ -18221,11 +18309,11 @@
       <c r="G134" s="31">
         <v>24067</v>
       </c>
-      <c r="H134" s="42">
+      <c r="H134" s="39">
         <f t="shared" si="2"/>
         <v>0.50620477873128045</v>
       </c>
-      <c r="I134" s="42">
+      <c r="I134" s="39">
         <f t="shared" si="3"/>
         <v>0.4937952212687195</v>
       </c>
@@ -18321,11 +18409,11 @@
       <c r="G135" s="31">
         <v>4348</v>
       </c>
-      <c r="H135" s="42">
+      <c r="H135" s="39">
         <f t="shared" ref="H135:H198" si="4">+G135/E135</f>
         <v>0.54767602972666585</v>
       </c>
-      <c r="I135" s="42">
+      <c r="I135" s="39">
         <f t="shared" ref="I135:I198" si="5">+F135/E135</f>
         <v>0.45232397027333415</v>
       </c>
@@ -18421,11 +18509,11 @@
       <c r="G136" s="31">
         <v>14902</v>
       </c>
-      <c r="H136" s="42">
+      <c r="H136" s="39">
         <f t="shared" si="4"/>
         <v>0.5115337086365509</v>
       </c>
-      <c r="I136" s="42">
+      <c r="I136" s="39">
         <f t="shared" si="5"/>
         <v>0.4884662913634491</v>
       </c>
@@ -18521,11 +18609,11 @@
       <c r="G137" s="31">
         <v>54328</v>
       </c>
-      <c r="H137" s="42">
+      <c r="H137" s="39">
         <f t="shared" si="4"/>
         <v>0.51537257506047529</v>
       </c>
-      <c r="I137" s="42">
+      <c r="I137" s="39">
         <f t="shared" si="5"/>
         <v>0.48462742493952471</v>
       </c>
@@ -18621,11 +18709,11 @@
       <c r="G138" s="31">
         <v>19516</v>
       </c>
-      <c r="H138" s="42">
+      <c r="H138" s="39">
         <f t="shared" si="4"/>
         <v>0.52046830413099709</v>
       </c>
-      <c r="I138" s="42">
+      <c r="I138" s="39">
         <f t="shared" si="5"/>
         <v>0.47953169586900285</v>
       </c>
@@ -18721,11 +18809,11 @@
       <c r="G139" s="31">
         <v>10953</v>
       </c>
-      <c r="H139" s="42">
+      <c r="H139" s="39">
         <f t="shared" si="4"/>
         <v>0.50638002773925106</v>
       </c>
-      <c r="I139" s="42">
+      <c r="I139" s="39">
         <f t="shared" si="5"/>
         <v>0.49361997226074894</v>
       </c>
@@ -18821,11 +18909,11 @@
       <c r="G140" s="31">
         <v>11658</v>
       </c>
-      <c r="H140" s="42">
+      <c r="H140" s="39">
         <f t="shared" si="4"/>
         <v>0.52594062979337719</v>
       </c>
-      <c r="I140" s="42">
+      <c r="I140" s="39">
         <f t="shared" si="5"/>
         <v>0.47405937020662275</v>
       </c>
@@ -18921,11 +19009,11 @@
       <c r="G141" s="31">
         <v>8926</v>
       </c>
-      <c r="H141" s="42">
+      <c r="H141" s="39">
         <f t="shared" si="4"/>
         <v>0.55081764887380436</v>
       </c>
-      <c r="I141" s="42">
+      <c r="I141" s="39">
         <f t="shared" si="5"/>
         <v>0.44918235112619564</v>
       </c>
@@ -19021,11 +19109,11 @@
       <c r="G142" s="31">
         <v>39788</v>
       </c>
-      <c r="H142" s="42">
+      <c r="H142" s="39">
         <f t="shared" si="4"/>
         <v>0.51385104157249684</v>
       </c>
-      <c r="I142" s="42">
+      <c r="I142" s="39">
         <f t="shared" si="5"/>
         <v>0.48614895842750322</v>
       </c>
@@ -19121,11 +19209,11 @@
       <c r="G143" s="31">
         <v>17070</v>
       </c>
-      <c r="H143" s="42">
+      <c r="H143" s="39">
         <f t="shared" si="4"/>
         <v>0.5105275750687881</v>
       </c>
-      <c r="I143" s="42">
+      <c r="I143" s="39">
         <f t="shared" si="5"/>
         <v>0.48947242493121185</v>
       </c>
@@ -19221,11 +19309,11 @@
       <c r="G144" s="31">
         <v>11541</v>
       </c>
-      <c r="H144" s="42">
+      <c r="H144" s="39">
         <f t="shared" si="4"/>
         <v>0.51218213287178804</v>
       </c>
-      <c r="I144" s="42">
+      <c r="I144" s="39">
         <f t="shared" si="5"/>
         <v>0.48781786712821196</v>
       </c>
@@ -19321,11 +19409,11 @@
       <c r="G145" s="31">
         <v>8146</v>
       </c>
-      <c r="H145" s="42">
+      <c r="H145" s="39">
         <f t="shared" si="4"/>
         <v>0.5139756451511136</v>
       </c>
-      <c r="I145" s="42">
+      <c r="I145" s="39">
         <f t="shared" si="5"/>
         <v>0.48602435484888634</v>
       </c>
@@ -19421,11 +19509,11 @@
       <c r="G146" s="31">
         <v>5236</v>
       </c>
-      <c r="H146" s="42">
+      <c r="H146" s="39">
         <f t="shared" si="4"/>
         <v>0.51273012142577357</v>
       </c>
-      <c r="I146" s="42">
+      <c r="I146" s="39">
         <f t="shared" si="5"/>
         <v>0.48726987857422638</v>
       </c>
@@ -19521,11 +19609,11 @@
       <c r="G147" s="31">
         <v>21638</v>
       </c>
-      <c r="H147" s="42">
+      <c r="H147" s="39">
         <f t="shared" si="4"/>
         <v>0.51164550377148799</v>
       </c>
-      <c r="I147" s="42">
+      <c r="I147" s="39">
         <f t="shared" si="5"/>
         <v>0.48835449622851196</v>
       </c>
@@ -19621,11 +19709,11 @@
       <c r="G148" s="31">
         <v>6814</v>
       </c>
-      <c r="H148" s="42">
+      <c r="H148" s="39">
         <f t="shared" si="4"/>
         <v>0.5130251468152387</v>
       </c>
-      <c r="I148" s="42">
+      <c r="I148" s="39">
         <f t="shared" si="5"/>
         <v>0.48697485318476136</v>
       </c>
@@ -19721,11 +19809,11 @@
       <c r="G149" s="31">
         <v>12705</v>
       </c>
-      <c r="H149" s="42">
+      <c r="H149" s="39">
         <f t="shared" si="4"/>
         <v>0.51250504235578864</v>
       </c>
-      <c r="I149" s="42">
+      <c r="I149" s="39">
         <f t="shared" si="5"/>
         <v>0.48749495764421136</v>
       </c>
@@ -19821,11 +19909,11 @@
       <c r="G150" s="31">
         <v>10675</v>
       </c>
-      <c r="H150" s="42">
+      <c r="H150" s="39">
         <f t="shared" si="4"/>
         <v>0.52243919150393969</v>
       </c>
-      <c r="I150" s="42">
+      <c r="I150" s="39">
         <f t="shared" si="5"/>
         <v>0.47756080849606031</v>
       </c>
@@ -19921,11 +20009,11 @@
       <c r="G151" s="31">
         <v>29925</v>
       </c>
-      <c r="H151" s="42">
+      <c r="H151" s="39">
         <f t="shared" si="4"/>
         <v>0.50562652068126523</v>
       </c>
-      <c r="I151" s="42">
+      <c r="I151" s="39">
         <f t="shared" si="5"/>
         <v>0.49437347931873482</v>
       </c>
@@ -20021,11 +20109,11 @@
       <c r="G152" s="31">
         <v>5253</v>
       </c>
-      <c r="H152" s="42">
+      <c r="H152" s="39">
         <f t="shared" si="4"/>
         <v>0.50901162790697674</v>
       </c>
-      <c r="I152" s="42">
+      <c r="I152" s="39">
         <f t="shared" si="5"/>
         <v>0.49098837209302326</v>
       </c>
@@ -20121,11 +20209,11 @@
       <c r="G153" s="31">
         <v>3781</v>
       </c>
-      <c r="H153" s="42">
+      <c r="H153" s="39">
         <f t="shared" si="4"/>
         <v>0.51212244345117164</v>
       </c>
-      <c r="I153" s="42">
+      <c r="I153" s="39">
         <f t="shared" si="5"/>
         <v>0.48787755654882842</v>
       </c>
@@ -20221,11 +20309,11 @@
       <c r="G154" s="31">
         <v>30616</v>
       </c>
-      <c r="H154" s="42">
+      <c r="H154" s="39">
         <f t="shared" si="4"/>
         <v>0.50409154523750721</v>
       </c>
-      <c r="I154" s="42">
+      <c r="I154" s="39">
         <f t="shared" si="5"/>
         <v>0.49590845476249279</v>
       </c>
@@ -20321,11 +20409,11 @@
       <c r="G155" s="31">
         <v>20405</v>
       </c>
-      <c r="H155" s="42">
+      <c r="H155" s="39">
         <f t="shared" si="4"/>
         <v>0.50156084851166338</v>
       </c>
-      <c r="I155" s="42">
+      <c r="I155" s="39">
         <f t="shared" si="5"/>
         <v>0.49843915148833667</v>
       </c>
@@ -20421,11 +20509,11 @@
       <c r="G156" s="31">
         <v>13028</v>
       </c>
-      <c r="H156" s="42">
+      <c r="H156" s="39">
         <f t="shared" si="4"/>
         <v>0.49449631822667578</v>
       </c>
-      <c r="I156" s="42">
+      <c r="I156" s="39">
         <f t="shared" si="5"/>
         <v>0.50550368177332428</v>
       </c>
@@ -20521,11 +20609,11 @@
       <c r="G157" s="31">
         <v>3957</v>
       </c>
-      <c r="H157" s="42">
+      <c r="H157" s="39">
         <f t="shared" si="4"/>
         <v>0.50562228469205217</v>
       </c>
-      <c r="I157" s="42">
+      <c r="I157" s="39">
         <f t="shared" si="5"/>
         <v>0.49437771530794788</v>
       </c>
@@ -20621,11 +20709,11 @@
       <c r="G158" s="31">
         <v>6093</v>
       </c>
-      <c r="H158" s="42">
+      <c r="H158" s="39">
         <f t="shared" si="4"/>
         <v>0.52085826637031973</v>
       </c>
-      <c r="I158" s="42">
+      <c r="I158" s="39">
         <f t="shared" si="5"/>
         <v>0.47914173362968027</v>
       </c>
@@ -20721,11 +20809,11 @@
       <c r="G159" s="31">
         <v>4147</v>
       </c>
-      <c r="H159" s="42">
+      <c r="H159" s="39">
         <f t="shared" si="4"/>
         <v>0.50084541062801935</v>
       </c>
-      <c r="I159" s="42">
+      <c r="I159" s="39">
         <f t="shared" si="5"/>
         <v>0.49915458937198065</v>
       </c>
@@ -20821,11 +20909,11 @@
       <c r="G160" s="31">
         <v>5787</v>
       </c>
-      <c r="H160" s="42">
+      <c r="H160" s="39">
         <f t="shared" si="4"/>
         <v>0.51144498453380471</v>
       </c>
-      <c r="I160" s="42">
+      <c r="I160" s="39">
         <f t="shared" si="5"/>
         <v>0.48855501546619534</v>
       </c>
@@ -20921,11 +21009,11 @@
       <c r="G161" s="31">
         <v>13881</v>
       </c>
-      <c r="H161" s="42">
+      <c r="H161" s="39">
         <f t="shared" si="4"/>
         <v>0.50282547272332101</v>
       </c>
-      <c r="I161" s="42">
+      <c r="I161" s="39">
         <f t="shared" si="5"/>
         <v>0.49717452727667899</v>
       </c>
@@ -21021,11 +21109,11 @@
       <c r="G162" s="31">
         <v>11892</v>
       </c>
-      <c r="H162" s="42">
+      <c r="H162" s="39">
         <f t="shared" si="4"/>
         <v>0.51565345590148293</v>
       </c>
-      <c r="I162" s="42">
+      <c r="I162" s="39">
         <f t="shared" si="5"/>
         <v>0.48434654409851702</v>
       </c>
@@ -21121,11 +21209,11 @@
       <c r="G163" s="31">
         <v>46643</v>
       </c>
-      <c r="H163" s="42">
+      <c r="H163" s="39">
         <f t="shared" si="4"/>
         <v>0.5153637920556875</v>
       </c>
-      <c r="I163" s="42">
+      <c r="I163" s="39">
         <f t="shared" si="5"/>
         <v>0.48463620794431245</v>
       </c>
@@ -21221,11 +21309,11 @@
       <c r="G164" s="31">
         <v>15012</v>
       </c>
-      <c r="H164" s="42">
+      <c r="H164" s="39">
         <f t="shared" si="4"/>
         <v>0.51469126067130666</v>
       </c>
-      <c r="I164" s="42">
+      <c r="I164" s="39">
         <f t="shared" si="5"/>
         <v>0.48530873932869339</v>
       </c>
@@ -21321,11 +21409,11 @@
       <c r="G165" s="31">
         <v>6831</v>
       </c>
-      <c r="H165" s="42">
+      <c r="H165" s="39">
         <f t="shared" si="4"/>
         <v>0.50431893687707641</v>
       </c>
-      <c r="I165" s="42">
+      <c r="I165" s="39">
         <f t="shared" si="5"/>
         <v>0.49568106312292359</v>
       </c>
@@ -21421,11 +21509,11 @@
       <c r="G166" s="31">
         <v>6066</v>
       </c>
-      <c r="H166" s="42">
+      <c r="H166" s="39">
         <f t="shared" si="4"/>
         <v>0.50202764214185214</v>
       </c>
-      <c r="I166" s="42">
+      <c r="I166" s="39">
         <f t="shared" si="5"/>
         <v>0.49797235785814781</v>
       </c>
@@ -21521,11 +21609,11 @@
       <c r="G167" s="31">
         <v>12626</v>
       </c>
-      <c r="H167" s="42">
+      <c r="H167" s="39">
         <f t="shared" si="4"/>
         <v>0.51648531457089097</v>
       </c>
-      <c r="I167" s="42">
+      <c r="I167" s="39">
         <f t="shared" si="5"/>
         <v>0.48351468542910908</v>
       </c>
@@ -21621,11 +21709,11 @@
       <c r="G168" s="31">
         <v>24056</v>
       </c>
-      <c r="H168" s="42">
+      <c r="H168" s="39">
         <f t="shared" si="4"/>
         <v>0.50305311585110835</v>
       </c>
-      <c r="I168" s="42">
+      <c r="I168" s="39">
         <f t="shared" si="5"/>
         <v>0.49694688414889165</v>
       </c>
@@ -21721,11 +21809,11 @@
       <c r="G169" s="31">
         <v>16696</v>
       </c>
-      <c r="H169" s="42">
+      <c r="H169" s="39">
         <f t="shared" si="4"/>
         <v>0.50879171110772514</v>
       </c>
-      <c r="I169" s="42">
+      <c r="I169" s="39">
         <f t="shared" si="5"/>
         <v>0.49120828889227486</v>
       </c>
@@ -21821,11 +21909,11 @@
       <c r="G170" s="31">
         <v>20112</v>
       </c>
-      <c r="H170" s="42">
+      <c r="H170" s="39">
         <f t="shared" si="4"/>
         <v>0.50832806773663597</v>
       </c>
-      <c r="I170" s="42">
+      <c r="I170" s="39">
         <f t="shared" si="5"/>
         <v>0.49167193226336409</v>
       </c>
@@ -21921,11 +22009,11 @@
       <c r="G171" s="31">
         <v>19041</v>
       </c>
-      <c r="H171" s="42">
+      <c r="H171" s="39">
         <f t="shared" si="4"/>
         <v>0.51626809825931352</v>
       </c>
-      <c r="I171" s="42">
+      <c r="I171" s="39">
         <f t="shared" si="5"/>
         <v>0.48373190174068653</v>
       </c>
@@ -22021,11 +22109,11 @@
       <c r="G172" s="31">
         <v>24807</v>
       </c>
-      <c r="H172" s="42">
+      <c r="H172" s="39">
         <f t="shared" si="4"/>
         <v>0.52710196970018908</v>
       </c>
-      <c r="I172" s="42">
+      <c r="I172" s="39">
         <f t="shared" si="5"/>
         <v>0.47289803029981087</v>
       </c>
@@ -22121,11 +22209,11 @@
       <c r="G173" s="31">
         <v>41448</v>
       </c>
-      <c r="H173" s="42">
+      <c r="H173" s="39">
         <f t="shared" si="4"/>
         <v>0.52361100583642839</v>
       </c>
-      <c r="I173" s="42">
+      <c r="I173" s="39">
         <f t="shared" si="5"/>
         <v>0.47638899416357161</v>
       </c>
@@ -22221,11 +22309,11 @@
       <c r="G174" s="31">
         <v>9998</v>
       </c>
-      <c r="H174" s="42">
+      <c r="H174" s="39">
         <f t="shared" si="4"/>
         <v>0.52345549738219899</v>
       </c>
-      <c r="I174" s="42">
+      <c r="I174" s="39">
         <f t="shared" si="5"/>
         <v>0.47654450261780107</v>
       </c>
@@ -22321,11 +22409,11 @@
       <c r="G175" s="31">
         <v>30729</v>
       </c>
-      <c r="H175" s="42">
+      <c r="H175" s="39">
         <f t="shared" si="4"/>
         <v>0.51654927801778483</v>
       </c>
-      <c r="I175" s="42">
+      <c r="I175" s="39">
         <f t="shared" si="5"/>
         <v>0.48345072198221523</v>
       </c>
@@ -22421,11 +22509,11 @@
       <c r="G176" s="31">
         <v>24287</v>
       </c>
-      <c r="H176" s="42">
+      <c r="H176" s="39">
         <f t="shared" si="4"/>
         <v>0.51345637512948983</v>
       </c>
-      <c r="I176" s="42">
+      <c r="I176" s="39">
         <f t="shared" si="5"/>
         <v>0.48654362487051012</v>
       </c>
@@ -22521,11 +22609,11 @@
       <c r="G177" s="31">
         <v>35591</v>
       </c>
-      <c r="H177" s="42">
+      <c r="H177" s="39">
         <f t="shared" si="4"/>
         <v>0.52226037447907492</v>
       </c>
-      <c r="I177" s="42">
+      <c r="I177" s="39">
         <f t="shared" si="5"/>
         <v>0.47773962552092503</v>
       </c>
@@ -22621,11 +22709,11 @@
       <c r="G178" s="31">
         <v>38365</v>
       </c>
-      <c r="H178" s="42">
+      <c r="H178" s="39">
         <f t="shared" si="4"/>
         <v>0.50621470417480341</v>
       </c>
-      <c r="I178" s="42">
+      <c r="I178" s="39">
         <f t="shared" si="5"/>
         <v>0.49378529582519659</v>
       </c>
@@ -22721,11 +22809,11 @@
       <c r="G179" s="31">
         <v>7884</v>
       </c>
-      <c r="H179" s="42">
+      <c r="H179" s="39">
         <f t="shared" si="4"/>
         <v>0.50111231170151915</v>
       </c>
-      <c r="I179" s="42">
+      <c r="I179" s="39">
         <f t="shared" si="5"/>
         <v>0.4988876882984809</v>
       </c>
@@ -22821,11 +22909,11 @@
       <c r="G180" s="31">
         <v>26645</v>
       </c>
-      <c r="H180" s="42">
+      <c r="H180" s="39">
         <f t="shared" si="4"/>
         <v>0.52340542557997916</v>
       </c>
-      <c r="I180" s="42">
+      <c r="I180" s="39">
         <f t="shared" si="5"/>
         <v>0.47659457442002084</v>
       </c>
@@ -22921,11 +23009,11 @@
       <c r="G181" s="31">
         <v>19859</v>
       </c>
-      <c r="H181" s="42">
+      <c r="H181" s="39">
         <f t="shared" si="4"/>
         <v>0.51356383666502881</v>
       </c>
-      <c r="I181" s="42">
+      <c r="I181" s="39">
         <f t="shared" si="5"/>
         <v>0.48643616333497114</v>
       </c>
@@ -23021,11 +23109,11 @@
       <c r="G182" s="31">
         <v>8763</v>
       </c>
-      <c r="H182" s="42">
+      <c r="H182" s="39">
         <f t="shared" si="4"/>
         <v>0.51129004025905833</v>
       </c>
-      <c r="I182" s="42">
+      <c r="I182" s="39">
         <f t="shared" si="5"/>
         <v>0.48870995974094172</v>
       </c>
@@ -23121,11 +23209,11 @@
       <c r="G183" s="31">
         <v>15261</v>
       </c>
-      <c r="H183" s="42">
+      <c r="H183" s="39">
         <f t="shared" si="4"/>
         <v>0.50756643496191833</v>
       </c>
-      <c r="I183" s="42">
+      <c r="I183" s="39">
         <f t="shared" si="5"/>
         <v>0.49243356503808161</v>
       </c>
@@ -23221,11 +23309,11 @@
       <c r="G184" s="31">
         <v>22322</v>
       </c>
-      <c r="H184" s="42">
+      <c r="H184" s="39">
         <f t="shared" si="4"/>
         <v>0.50280436986147092</v>
       </c>
-      <c r="I184" s="42">
+      <c r="I184" s="39">
         <f t="shared" si="5"/>
         <v>0.49719563013852913</v>
       </c>
@@ -23321,11 +23409,11 @@
       <c r="G185" s="31">
         <v>8997</v>
       </c>
-      <c r="H185" s="42">
+      <c r="H185" s="39">
         <f t="shared" si="4"/>
         <v>0.50315977853587612</v>
       </c>
-      <c r="I185" s="42">
+      <c r="I185" s="39">
         <f t="shared" si="5"/>
         <v>0.49684022146412393</v>
       </c>
@@ -23421,11 +23509,11 @@
       <c r="G186" s="31">
         <v>47445</v>
       </c>
-      <c r="H186" s="42">
+      <c r="H186" s="39">
         <f t="shared" si="4"/>
         <v>0.51117264264781936</v>
       </c>
-      <c r="I186" s="42">
+      <c r="I186" s="39">
         <f t="shared" si="5"/>
         <v>0.48882735735218064</v>
       </c>
@@ -23521,11 +23609,11 @@
       <c r="G187" s="31">
         <v>15231</v>
       </c>
-      <c r="H187" s="42">
+      <c r="H187" s="39">
         <f t="shared" si="4"/>
         <v>0.50746318384753786</v>
       </c>
-      <c r="I187" s="42">
+      <c r="I187" s="39">
         <f t="shared" si="5"/>
         <v>0.4925368161524622</v>
       </c>
@@ -23621,11 +23709,11 @@
       <c r="G188" s="31">
         <v>19057</v>
       </c>
-      <c r="H188" s="42">
+      <c r="H188" s="39">
         <f t="shared" si="4"/>
         <v>0.5143728575670059</v>
       </c>
-      <c r="I188" s="42">
+      <c r="I188" s="39">
         <f t="shared" si="5"/>
         <v>0.48562714243299415</v>
       </c>
@@ -23721,11 +23809,11 @@
       <c r="G189" s="31">
         <v>5503</v>
       </c>
-      <c r="H189" s="42">
+      <c r="H189" s="39">
         <f t="shared" si="4"/>
         <v>0.50760999907757587</v>
       </c>
-      <c r="I189" s="42">
+      <c r="I189" s="39">
         <f t="shared" si="5"/>
         <v>0.49239000092242413</v>
       </c>
@@ -23821,11 +23909,11 @@
       <c r="G190" s="31">
         <v>25396</v>
       </c>
-      <c r="H190" s="42">
+      <c r="H190" s="39">
         <f t="shared" si="4"/>
         <v>0.51895293949363464</v>
       </c>
-      <c r="I190" s="42">
+      <c r="I190" s="39">
         <f t="shared" si="5"/>
         <v>0.48104706050636531</v>
       </c>
@@ -23921,11 +24009,11 @@
       <c r="G191" s="31">
         <v>11967</v>
       </c>
-      <c r="H191" s="42">
+      <c r="H191" s="39">
         <f t="shared" si="4"/>
         <v>0.50899578920505295</v>
       </c>
-      <c r="I191" s="42">
+      <c r="I191" s="39">
         <f t="shared" si="5"/>
         <v>0.49100421079494705</v>
       </c>
@@ -24021,11 +24109,11 @@
       <c r="G192" s="31">
         <v>9086</v>
       </c>
-      <c r="H192" s="42">
+      <c r="H192" s="39">
         <f t="shared" si="4"/>
         <v>0.50708784462551626</v>
       </c>
-      <c r="I192" s="42">
+      <c r="I192" s="39">
         <f t="shared" si="5"/>
         <v>0.49291215537448374</v>
       </c>
@@ -24121,11 +24209,11 @@
       <c r="G193" s="31">
         <v>11147</v>
       </c>
-      <c r="H193" s="42">
+      <c r="H193" s="39">
         <f t="shared" si="4"/>
         <v>0.51309551208285387</v>
       </c>
-      <c r="I193" s="42">
+      <c r="I193" s="39">
         <f t="shared" si="5"/>
         <v>0.48690448791714613</v>
       </c>
@@ -24221,11 +24309,11 @@
       <c r="G194" s="31">
         <v>11831</v>
       </c>
-      <c r="H194" s="42">
+      <c r="H194" s="39">
         <f t="shared" si="4"/>
         <v>0.5287597765363129</v>
       </c>
-      <c r="I194" s="42">
+      <c r="I194" s="39">
         <f t="shared" si="5"/>
         <v>0.47124022346368716</v>
       </c>
@@ -24321,11 +24409,11 @@
       <c r="G195" s="31">
         <v>9621</v>
       </c>
-      <c r="H195" s="42">
+      <c r="H195" s="39">
         <f t="shared" si="4"/>
         <v>0.5061286758903677</v>
       </c>
-      <c r="I195" s="42">
+      <c r="I195" s="39">
         <f t="shared" si="5"/>
         <v>0.4938713241096323</v>
       </c>
@@ -24421,11 +24509,11 @@
       <c r="G196" s="31">
         <v>8670</v>
       </c>
-      <c r="H196" s="42">
+      <c r="H196" s="39">
         <f t="shared" si="4"/>
         <v>0.52169203923220409</v>
       </c>
-      <c r="I196" s="42">
+      <c r="I196" s="39">
         <f t="shared" si="5"/>
         <v>0.47830796076779591</v>
       </c>
@@ -24521,11 +24609,11 @@
       <c r="G197" s="31">
         <v>10339</v>
       </c>
-      <c r="H197" s="42">
+      <c r="H197" s="39">
         <f t="shared" si="4"/>
         <v>0.51238973139062349</v>
       </c>
-      <c r="I197" s="42">
+      <c r="I197" s="39">
         <f t="shared" si="5"/>
         <v>0.48761026860937656</v>
       </c>
@@ -24621,11 +24709,11 @@
       <c r="G198" s="31">
         <v>6675</v>
       </c>
-      <c r="H198" s="42">
+      <c r="H198" s="39">
         <f t="shared" si="4"/>
         <v>0.51776295376977965</v>
       </c>
-      <c r="I198" s="42">
+      <c r="I198" s="39">
         <f t="shared" si="5"/>
         <v>0.48223704623022029</v>
       </c>
@@ -24721,11 +24809,11 @@
       <c r="G199" s="31">
         <v>2819</v>
       </c>
-      <c r="H199" s="42">
+      <c r="H199" s="39">
         <f t="shared" ref="H199:H262" si="6">+G199/E199</f>
         <v>0.53008649868371571</v>
       </c>
-      <c r="I199" s="42">
+      <c r="I199" s="39">
         <f t="shared" ref="I199:I262" si="7">+F199/E199</f>
         <v>0.46991350131628434</v>
       </c>
@@ -24821,11 +24909,11 @@
       <c r="G200" s="31">
         <v>6785</v>
       </c>
-      <c r="H200" s="42">
+      <c r="H200" s="39">
         <f t="shared" si="6"/>
         <v>0.51695238095238094</v>
       </c>
-      <c r="I200" s="42">
+      <c r="I200" s="39">
         <f t="shared" si="7"/>
         <v>0.48304761904761906</v>
       </c>
@@ -24921,11 +25009,11 @@
       <c r="G201" s="31">
         <v>14607</v>
       </c>
-      <c r="H201" s="42">
+      <c r="H201" s="39">
         <f t="shared" si="6"/>
         <v>0.50175185490519369</v>
       </c>
-      <c r="I201" s="42">
+      <c r="I201" s="39">
         <f t="shared" si="7"/>
         <v>0.49824814509480625</v>
       </c>
@@ -25021,11 +25109,11 @@
       <c r="G202" s="31">
         <v>62067</v>
       </c>
-      <c r="H202" s="42">
+      <c r="H202" s="39">
         <f t="shared" si="6"/>
         <v>0.52680405370995942</v>
       </c>
-      <c r="I202" s="42">
+      <c r="I202" s="39">
         <f t="shared" si="7"/>
         <v>0.47319594629004058</v>
       </c>
@@ -25121,11 +25209,11 @@
       <c r="G203" s="31">
         <v>45284</v>
       </c>
-      <c r="H203" s="42">
+      <c r="H203" s="39">
         <f t="shared" si="6"/>
         <v>0.51784509474310159</v>
       </c>
-      <c r="I203" s="42">
+      <c r="I203" s="39">
         <f t="shared" si="7"/>
         <v>0.48215490525689847</v>
       </c>
@@ -25221,11 +25309,11 @@
       <c r="G204" s="31">
         <v>9834</v>
       </c>
-      <c r="H204" s="42">
+      <c r="H204" s="39">
         <f t="shared" si="6"/>
         <v>0.51339075959279556</v>
       </c>
-      <c r="I204" s="42">
+      <c r="I204" s="39">
         <f t="shared" si="7"/>
         <v>0.48660924040720438</v>
       </c>
@@ -25321,11 +25409,11 @@
       <c r="G205" s="31">
         <v>31961</v>
       </c>
-      <c r="H205" s="42">
+      <c r="H205" s="39">
         <f t="shared" si="6"/>
         <v>0.52919943703949002</v>
       </c>
-      <c r="I205" s="42">
+      <c r="I205" s="39">
         <f t="shared" si="7"/>
         <v>0.47080056296050998</v>
       </c>
@@ -25421,11 +25509,11 @@
       <c r="G206" s="31">
         <v>23371</v>
       </c>
-      <c r="H206" s="42">
+      <c r="H206" s="39">
         <f t="shared" si="6"/>
         <v>0.51163554368528208</v>
       </c>
-      <c r="I206" s="42">
+      <c r="I206" s="39">
         <f t="shared" si="7"/>
         <v>0.48836445631471792</v>
       </c>
@@ -25521,11 +25609,11 @@
       <c r="G207" s="31">
         <v>19859</v>
       </c>
-      <c r="H207" s="42">
+      <c r="H207" s="39">
         <f t="shared" si="6"/>
         <v>0.51568423786029605</v>
       </c>
-      <c r="I207" s="42">
+      <c r="I207" s="39">
         <f t="shared" si="7"/>
         <v>0.48431576213970395</v>
       </c>
@@ -25621,11 +25709,11 @@
       <c r="G208" s="31">
         <v>19807</v>
       </c>
-      <c r="H208" s="42">
+      <c r="H208" s="39">
         <f t="shared" si="6"/>
         <v>0.532861639450109</v>
       </c>
-      <c r="I208" s="42">
+      <c r="I208" s="39">
         <f t="shared" si="7"/>
         <v>0.46713836054989105</v>
       </c>
@@ -25721,11 +25809,11 @@
       <c r="G209" s="31">
         <v>27048</v>
       </c>
-      <c r="H209" s="42">
+      <c r="H209" s="39">
         <f t="shared" si="6"/>
         <v>0.55166224760350802</v>
       </c>
-      <c r="I209" s="42">
+      <c r="I209" s="39">
         <f t="shared" si="7"/>
         <v>0.44833775239649193</v>
       </c>
@@ -25821,11 +25909,11 @@
       <c r="G210" s="31">
         <v>22940</v>
       </c>
-      <c r="H210" s="42">
+      <c r="H210" s="39">
         <f t="shared" si="6"/>
         <v>0.51638753826760309</v>
       </c>
-      <c r="I210" s="42">
+      <c r="I210" s="39">
         <f t="shared" si="7"/>
         <v>0.48361246173239691</v>
       </c>
@@ -25921,11 +26009,11 @@
       <c r="G211" s="31">
         <v>17648</v>
       </c>
-      <c r="H211" s="42">
+      <c r="H211" s="39">
         <f t="shared" si="6"/>
         <v>0.52511306831706739</v>
       </c>
-      <c r="I211" s="42">
+      <c r="I211" s="39">
         <f t="shared" si="7"/>
         <v>0.47488693168293261</v>
       </c>
@@ -26021,11 +26109,11 @@
       <c r="G212" s="31">
         <v>19833</v>
       </c>
-      <c r="H212" s="42">
+      <c r="H212" s="39">
         <f t="shared" si="6"/>
         <v>0.51872678767589053</v>
       </c>
-      <c r="I212" s="42">
+      <c r="I212" s="39">
         <f t="shared" si="7"/>
         <v>0.48127321232410941</v>
       </c>
@@ -26121,11 +26209,11 @@
       <c r="G213" s="31">
         <v>28776</v>
       </c>
-      <c r="H213" s="42">
+      <c r="H213" s="39">
         <f t="shared" si="6"/>
         <v>0.51910379911245808</v>
       </c>
-      <c r="I213" s="42">
+      <c r="I213" s="39">
         <f t="shared" si="7"/>
         <v>0.48089620088754192</v>
       </c>
@@ -26221,11 +26309,11 @@
       <c r="G214" s="31">
         <v>14236</v>
       </c>
-      <c r="H214" s="42">
+      <c r="H214" s="39">
         <f t="shared" si="6"/>
         <v>0.52477145384842228</v>
       </c>
-      <c r="I214" s="42">
+      <c r="I214" s="39">
         <f t="shared" si="7"/>
         <v>0.47522854615157772</v>
       </c>
@@ -26321,11 +26409,11 @@
       <c r="G215" s="31">
         <v>7421</v>
       </c>
-      <c r="H215" s="42">
+      <c r="H215" s="39">
         <f t="shared" si="6"/>
         <v>0.52448936320588024</v>
       </c>
-      <c r="I215" s="42">
+      <c r="I215" s="39">
         <f t="shared" si="7"/>
         <v>0.4755106367941197</v>
       </c>
@@ -26421,11 +26509,11 @@
       <c r="G216" s="31">
         <v>16122</v>
       </c>
-      <c r="H216" s="42">
+      <c r="H216" s="39">
         <f t="shared" si="6"/>
         <v>0.53408865036772013</v>
       </c>
-      <c r="I216" s="42">
+      <c r="I216" s="39">
         <f t="shared" si="7"/>
         <v>0.46591134963227987</v>
       </c>
@@ -26521,11 +26609,11 @@
       <c r="G217" s="31">
         <v>10526</v>
       </c>
-      <c r="H217" s="42">
+      <c r="H217" s="39">
         <f t="shared" si="6"/>
         <v>0.54207436399217224</v>
       </c>
-      <c r="I217" s="42">
+      <c r="I217" s="39">
         <f t="shared" si="7"/>
         <v>0.45792563600782776</v>
       </c>
@@ -26621,11 +26709,11 @@
       <c r="G218" s="31">
         <v>20480</v>
       </c>
-      <c r="H218" s="42">
+      <c r="H218" s="39">
         <f t="shared" si="6"/>
         <v>0.52479180012812299</v>
       </c>
-      <c r="I218" s="42">
+      <c r="I218" s="39">
         <f t="shared" si="7"/>
         <v>0.47520819987187701</v>
       </c>
@@ -26721,11 +26809,11 @@
       <c r="G219" s="31">
         <v>22880</v>
       </c>
-      <c r="H219" s="42">
+      <c r="H219" s="39">
         <f t="shared" si="6"/>
         <v>0.52225519287833833</v>
       </c>
-      <c r="I219" s="42">
+      <c r="I219" s="39">
         <f t="shared" si="7"/>
         <v>0.47774480712166173</v>
       </c>
@@ -26821,11 +26909,11 @@
       <c r="G220" s="31">
         <v>18246</v>
       </c>
-      <c r="H220" s="42">
+      <c r="H220" s="39">
         <f t="shared" si="6"/>
         <v>0.52379858758684039</v>
       </c>
-      <c r="I220" s="42">
+      <c r="I220" s="39">
         <f t="shared" si="7"/>
         <v>0.47620141241315955</v>
       </c>
@@ -26921,11 +27009,11 @@
       <c r="G221" s="31">
         <v>16970</v>
       </c>
-      <c r="H221" s="42">
+      <c r="H221" s="39">
         <f t="shared" si="6"/>
         <v>0.52042443572129538</v>
       </c>
-      <c r="I221" s="42">
+      <c r="I221" s="39">
         <f t="shared" si="7"/>
         <v>0.47957556427870462</v>
       </c>
@@ -27021,11 +27109,11 @@
       <c r="G222" s="31">
         <v>5534</v>
       </c>
-      <c r="H222" s="42">
+      <c r="H222" s="39">
         <f t="shared" si="6"/>
         <v>0.51098799630655589</v>
       </c>
-      <c r="I222" s="42">
+      <c r="I222" s="39">
         <f t="shared" si="7"/>
         <v>0.48901200369344416</v>
       </c>
@@ -27121,11 +27209,11 @@
       <c r="G223" s="31">
         <v>10106</v>
       </c>
-      <c r="H223" s="42">
+      <c r="H223" s="39">
         <f t="shared" si="6"/>
         <v>0.53428495902722706</v>
       </c>
-      <c r="I223" s="42">
+      <c r="I223" s="39">
         <f t="shared" si="7"/>
         <v>0.46571504097277294</v>
       </c>
@@ -27221,11 +27309,11 @@
       <c r="G224" s="31">
         <v>12377</v>
       </c>
-      <c r="H224" s="42">
+      <c r="H224" s="39">
         <f t="shared" si="6"/>
         <v>0.53339941389415613</v>
       </c>
-      <c r="I224" s="42">
+      <c r="I224" s="39">
         <f t="shared" si="7"/>
         <v>0.46660058610584382</v>
       </c>
@@ -27321,11 +27409,11 @@
       <c r="G225" s="31">
         <v>8581</v>
       </c>
-      <c r="H225" s="42">
+      <c r="H225" s="39">
         <f t="shared" si="6"/>
         <v>0.51392465712403423</v>
       </c>
-      <c r="I225" s="42">
+      <c r="I225" s="39">
         <f t="shared" si="7"/>
         <v>0.48607534287596577</v>
       </c>
@@ -27421,11 +27509,11 @@
       <c r="G226" s="31">
         <v>10949</v>
       </c>
-      <c r="H226" s="42">
+      <c r="H226" s="39">
         <f t="shared" si="6"/>
         <v>0.52375029897153791</v>
       </c>
-      <c r="I226" s="42">
+      <c r="I226" s="39">
         <f t="shared" si="7"/>
         <v>0.47624970102846209</v>
       </c>
@@ -27521,11 +27609,11 @@
       <c r="G227" s="31">
         <v>51113</v>
       </c>
-      <c r="H227" s="42">
+      <c r="H227" s="39">
         <f t="shared" si="6"/>
         <v>0.50682703844361376</v>
       </c>
-      <c r="I227" s="42">
+      <c r="I227" s="39">
         <f t="shared" si="7"/>
         <v>0.49317296155638629</v>
       </c>
@@ -27621,11 +27709,11 @@
       <c r="G228" s="31">
         <v>27065</v>
       </c>
-      <c r="H228" s="42">
+      <c r="H228" s="39">
         <f t="shared" si="6"/>
         <v>0.54558832422843551</v>
       </c>
-      <c r="I228" s="42">
+      <c r="I228" s="39">
         <f t="shared" si="7"/>
         <v>0.45441167577156449</v>
       </c>
@@ -27721,11 +27809,11 @@
       <c r="G229" s="31">
         <v>5817</v>
       </c>
-      <c r="H229" s="42">
+      <c r="H229" s="39">
         <f t="shared" si="6"/>
         <v>0.516103273888741</v>
       </c>
-      <c r="I229" s="42">
+      <c r="I229" s="39">
         <f t="shared" si="7"/>
         <v>0.483896726111259</v>
       </c>
@@ -27821,11 +27909,11 @@
       <c r="G230" s="31">
         <v>4296</v>
       </c>
-      <c r="H230" s="42">
+      <c r="H230" s="39">
         <f t="shared" si="6"/>
         <v>0.52763448784082534</v>
       </c>
-      <c r="I230" s="42">
+      <c r="I230" s="39">
         <f t="shared" si="7"/>
         <v>0.47236551215917466</v>
       </c>
@@ -27921,11 +28009,11 @@
       <c r="G231" s="31">
         <v>5626</v>
       </c>
-      <c r="H231" s="42">
+      <c r="H231" s="39">
         <f t="shared" si="6"/>
         <v>0.53545255543923098</v>
       </c>
-      <c r="I231" s="42">
+      <c r="I231" s="39">
         <f t="shared" si="7"/>
         <v>0.46454744456076902</v>
       </c>
@@ -28021,11 +28109,11 @@
       <c r="G232" s="31">
         <v>4827</v>
       </c>
-      <c r="H232" s="42">
+      <c r="H232" s="39">
         <f t="shared" si="6"/>
         <v>0.5128014448103686</v>
       </c>
-      <c r="I232" s="42">
+      <c r="I232" s="39">
         <f t="shared" si="7"/>
         <v>0.48719855518963134</v>
       </c>
@@ -28121,11 +28209,11 @@
       <c r="G233" s="31">
         <v>8557</v>
       </c>
-      <c r="H233" s="42">
+      <c r="H233" s="39">
         <f t="shared" si="6"/>
         <v>0.53817610062893084</v>
       </c>
-      <c r="I233" s="42">
+      <c r="I233" s="39">
         <f t="shared" si="7"/>
         <v>0.46182389937106916</v>
       </c>
@@ -28221,11 +28309,11 @@
       <c r="G234" s="31">
         <v>3426</v>
       </c>
-      <c r="H234" s="42">
+      <c r="H234" s="39">
         <f t="shared" si="6"/>
         <v>0.53817153628652215</v>
       </c>
-      <c r="I234" s="42">
+      <c r="I234" s="39">
         <f t="shared" si="7"/>
         <v>0.46182846371347785</v>
       </c>
@@ -28321,11 +28409,11 @@
       <c r="G235" s="31">
         <v>41111</v>
       </c>
-      <c r="H235" s="42">
+      <c r="H235" s="39">
         <f t="shared" si="6"/>
         <v>0.52518555423549096</v>
       </c>
-      <c r="I235" s="42">
+      <c r="I235" s="39">
         <f t="shared" si="7"/>
         <v>0.47481444576450899</v>
       </c>
@@ -28421,11 +28509,11 @@
       <c r="G236" s="31">
         <v>15327</v>
       </c>
-      <c r="H236" s="42">
+      <c r="H236" s="39">
         <f t="shared" si="6"/>
         <v>0.51700060716454155</v>
       </c>
-      <c r="I236" s="42">
+      <c r="I236" s="39">
         <f t="shared" si="7"/>
         <v>0.4829993928354584</v>
       </c>
@@ -28521,11 +28609,11 @@
       <c r="G237" s="31">
         <v>5927</v>
       </c>
-      <c r="H237" s="42">
+      <c r="H237" s="39">
         <f t="shared" si="6"/>
         <v>0.52073449305921626</v>
       </c>
-      <c r="I237" s="42">
+      <c r="I237" s="39">
         <f t="shared" si="7"/>
         <v>0.47926550694078368</v>
       </c>
@@ -28621,11 +28709,11 @@
       <c r="G238" s="31">
         <v>17251</v>
       </c>
-      <c r="H238" s="42">
+      <c r="H238" s="39">
         <f t="shared" si="6"/>
         <v>0.52674809160305347</v>
       </c>
-      <c r="I238" s="42">
+      <c r="I238" s="39">
         <f t="shared" si="7"/>
         <v>0.47325190839694659</v>
       </c>
@@ -28721,11 +28809,11 @@
       <c r="G239" s="31">
         <v>24008</v>
       </c>
-      <c r="H239" s="42">
+      <c r="H239" s="39">
         <f t="shared" si="6"/>
         <v>0.51455270264477693</v>
       </c>
-      <c r="I239" s="42">
+      <c r="I239" s="39">
         <f t="shared" si="7"/>
         <v>0.48544729735522313</v>
       </c>
@@ -28821,11 +28909,11 @@
       <c r="G240" s="31">
         <v>74380</v>
       </c>
-      <c r="H240" s="42">
+      <c r="H240" s="39">
         <f t="shared" si="6"/>
         <v>0.52540493194035331</v>
       </c>
-      <c r="I240" s="42">
+      <c r="I240" s="39">
         <f t="shared" si="7"/>
         <v>0.47459506805964669</v>
       </c>
@@ -28921,11 +29009,11 @@
       <c r="G241" s="31">
         <v>3260</v>
       </c>
-      <c r="H241" s="42">
+      <c r="H241" s="39">
         <f t="shared" si="6"/>
         <v>0.53059895833333337</v>
       </c>
-      <c r="I241" s="42">
+      <c r="I241" s="39">
         <f t="shared" si="7"/>
         <v>0.46940104166666669</v>
       </c>
@@ -29021,11 +29109,11 @@
       <c r="G242" s="31">
         <v>13560</v>
       </c>
-      <c r="H242" s="42">
+      <c r="H242" s="39">
         <f t="shared" si="6"/>
         <v>0.52989449003516997</v>
       </c>
-      <c r="I242" s="42">
+      <c r="I242" s="39">
         <f t="shared" si="7"/>
         <v>0.47010550996483003</v>
       </c>
@@ -29121,11 +29209,11 @@
       <c r="G243" s="31">
         <v>16503</v>
       </c>
-      <c r="H243" s="42">
+      <c r="H243" s="39">
         <f t="shared" si="6"/>
         <v>0.51652582159624416</v>
       </c>
-      <c r="I243" s="42">
+      <c r="I243" s="39">
         <f t="shared" si="7"/>
         <v>0.48347417840375589</v>
       </c>
@@ -29221,11 +29309,11 @@
       <c r="G244" s="31">
         <v>21344</v>
       </c>
-      <c r="H244" s="42">
+      <c r="H244" s="39">
         <f t="shared" si="6"/>
         <v>0.51487154746110242</v>
       </c>
-      <c r="I244" s="42">
+      <c r="I244" s="39">
         <f t="shared" si="7"/>
         <v>0.48512845253889758</v>
       </c>
@@ -29321,11 +29409,11 @@
       <c r="G245" s="31">
         <v>16205</v>
       </c>
-      <c r="H245" s="42">
+      <c r="H245" s="39">
         <f t="shared" si="6"/>
         <v>0.5139223645820119</v>
       </c>
-      <c r="I245" s="42">
+      <c r="I245" s="39">
         <f t="shared" si="7"/>
         <v>0.4860776354179881</v>
       </c>
@@ -29421,11 +29509,11 @@
       <c r="G246" s="31">
         <v>44618</v>
       </c>
-      <c r="H246" s="42">
+      <c r="H246" s="39">
         <f t="shared" si="6"/>
         <v>0.54168437154754823</v>
       </c>
-      <c r="I246" s="42">
+      <c r="I246" s="39">
         <f t="shared" si="7"/>
         <v>0.45831562845245177</v>
       </c>
@@ -29521,11 +29609,11 @@
       <c r="G247" s="31">
         <v>38689</v>
       </c>
-      <c r="H247" s="42">
+      <c r="H247" s="39">
         <f t="shared" si="6"/>
         <v>0.53227581652587841</v>
       </c>
-      <c r="I247" s="42">
+      <c r="I247" s="39">
         <f t="shared" si="7"/>
         <v>0.46772418347412159</v>
       </c>
@@ -29621,11 +29709,11 @@
       <c r="G248" s="31">
         <v>13219</v>
       </c>
-      <c r="H248" s="42">
+      <c r="H248" s="39">
         <f t="shared" si="6"/>
         <v>0.52916216324406551</v>
       </c>
-      <c r="I248" s="42">
+      <c r="I248" s="39">
         <f t="shared" si="7"/>
         <v>0.47083783675593449</v>
       </c>
@@ -29721,11 +29809,11 @@
       <c r="G249" s="31">
         <v>33324</v>
       </c>
-      <c r="H249" s="42">
+      <c r="H249" s="39">
         <f t="shared" si="6"/>
         <v>0.50589021131892153</v>
       </c>
-      <c r="I249" s="42">
+      <c r="I249" s="39">
         <f t="shared" si="7"/>
         <v>0.49410978868107847</v>
       </c>
@@ -29821,11 +29909,11 @@
       <c r="G250" s="31">
         <v>27288</v>
       </c>
-      <c r="H250" s="42">
+      <c r="H250" s="39">
         <f t="shared" si="6"/>
         <v>0.5185860889395667</v>
       </c>
-      <c r="I250" s="42">
+      <c r="I250" s="39">
         <f t="shared" si="7"/>
         <v>0.4814139110604333</v>
       </c>
@@ -29921,11 +30009,11 @@
       <c r="G251" s="31">
         <v>6960</v>
       </c>
-      <c r="H251" s="42">
+      <c r="H251" s="39">
         <f t="shared" si="6"/>
         <v>0.51297169811320753</v>
       </c>
-      <c r="I251" s="42">
+      <c r="I251" s="39">
         <f t="shared" si="7"/>
         <v>0.48702830188679247</v>
       </c>
@@ -30021,11 +30109,11 @@
       <c r="G252" s="31">
         <v>6370</v>
       </c>
-      <c r="H252" s="42">
+      <c r="H252" s="39">
         <f t="shared" si="6"/>
         <v>0.52333223792310224</v>
       </c>
-      <c r="I252" s="42">
+      <c r="I252" s="39">
         <f t="shared" si="7"/>
         <v>0.47666776207689782</v>
       </c>
@@ -30121,11 +30209,11 @@
       <c r="G253" s="31">
         <v>20328</v>
       </c>
-      <c r="H253" s="42">
+      <c r="H253" s="39">
         <f t="shared" si="6"/>
         <v>0.51164078427424431</v>
       </c>
-      <c r="I253" s="42">
+      <c r="I253" s="39">
         <f t="shared" si="7"/>
         <v>0.48835921572575569</v>
       </c>
@@ -30221,11 +30309,11 @@
       <c r="G254" s="31">
         <v>49625</v>
       </c>
-      <c r="H254" s="42">
+      <c r="H254" s="39">
         <f t="shared" si="6"/>
         <v>0.4988941389363627</v>
       </c>
-      <c r="I254" s="42">
+      <c r="I254" s="39">
         <f t="shared" si="7"/>
         <v>0.5011058610636373</v>
       </c>
@@ -30321,11 +30409,11 @@
       <c r="G255" s="31">
         <v>4617</v>
       </c>
-      <c r="H255" s="42">
+      <c r="H255" s="39">
         <f t="shared" si="6"/>
         <v>0.52234415657879851</v>
       </c>
-      <c r="I255" s="42">
+      <c r="I255" s="39">
         <f t="shared" si="7"/>
         <v>0.47765584342120149</v>
       </c>
@@ -30421,11 +30509,11 @@
       <c r="G256" s="31">
         <v>34029</v>
       </c>
-      <c r="H256" s="42">
+      <c r="H256" s="39">
         <f t="shared" si="6"/>
         <v>0.5213175028724627</v>
       </c>
-      <c r="I256" s="42">
+      <c r="I256" s="39">
         <f t="shared" si="7"/>
         <v>0.47868249712753735</v>
       </c>
@@ -30521,11 +30609,11 @@
       <c r="G257" s="31">
         <v>17188</v>
       </c>
-      <c r="H257" s="42">
+      <c r="H257" s="39">
         <f t="shared" si="6"/>
         <v>0.51894568400712537</v>
       </c>
-      <c r="I257" s="42">
+      <c r="I257" s="39">
         <f t="shared" si="7"/>
         <v>0.48105431599287463</v>
       </c>
@@ -30621,11 +30709,11 @@
       <c r="G258" s="31">
         <v>21206</v>
       </c>
-      <c r="H258" s="42">
+      <c r="H258" s="39">
         <f t="shared" si="6"/>
         <v>0.51979312204328754</v>
       </c>
-      <c r="I258" s="42">
+      <c r="I258" s="39">
         <f t="shared" si="7"/>
         <v>0.48020687795671252</v>
       </c>
@@ -30721,11 +30809,11 @@
       <c r="G259" s="31">
         <v>28433</v>
       </c>
-      <c r="H259" s="42">
+      <c r="H259" s="39">
         <f t="shared" si="6"/>
         <v>0.51819788951867174</v>
       </c>
-      <c r="I259" s="42">
+      <c r="I259" s="39">
         <f t="shared" si="7"/>
         <v>0.48180211048132826</v>
       </c>
@@ -30821,11 +30909,11 @@
       <c r="G260" s="31">
         <v>7011</v>
       </c>
-      <c r="H260" s="42">
+      <c r="H260" s="39">
         <f t="shared" si="6"/>
         <v>0.51570430305259285</v>
       </c>
-      <c r="I260" s="42">
+      <c r="I260" s="39">
         <f t="shared" si="7"/>
         <v>0.48429569694740715</v>
       </c>
@@ -30921,11 +31009,11 @@
       <c r="G261" s="31">
         <v>5048</v>
       </c>
-      <c r="H261" s="42">
+      <c r="H261" s="39">
         <f t="shared" si="6"/>
         <v>0.52925141539106735</v>
       </c>
-      <c r="I261" s="42">
+      <c r="I261" s="39">
         <f t="shared" si="7"/>
         <v>0.47074858460893271</v>
       </c>
@@ -31021,11 +31109,11 @@
       <c r="G262" s="31">
         <v>13064</v>
       </c>
-      <c r="H262" s="42">
+      <c r="H262" s="39">
         <f t="shared" si="6"/>
         <v>0.51313877214344628</v>
       </c>
-      <c r="I262" s="42">
+      <c r="I262" s="39">
         <f t="shared" si="7"/>
         <v>0.48686122785655367</v>
       </c>
@@ -31121,11 +31209,11 @@
       <c r="G263" s="31">
         <v>28572</v>
       </c>
-      <c r="H263" s="42">
+      <c r="H263" s="39">
         <f t="shared" ref="H263:H326" si="8">+G263/E263</f>
         <v>0.50283340959487521</v>
       </c>
-      <c r="I263" s="42">
+      <c r="I263" s="39">
         <f t="shared" ref="I263:I326" si="9">+F263/E263</f>
         <v>0.49716659040512479</v>
       </c>
@@ -31221,11 +31309,11 @@
       <c r="G264" s="31">
         <v>108494</v>
       </c>
-      <c r="H264" s="42">
+      <c r="H264" s="39">
         <f t="shared" si="8"/>
         <v>0.51074987877846356</v>
       </c>
-      <c r="I264" s="42">
+      <c r="I264" s="39">
         <f t="shared" si="9"/>
         <v>0.48925012122153649</v>
       </c>
@@ -31321,11 +31409,11 @@
       <c r="G265" s="31">
         <v>16320</v>
       </c>
-      <c r="H265" s="42">
+      <c r="H265" s="39">
         <f t="shared" si="8"/>
         <v>0.50933150240309588</v>
       </c>
-      <c r="I265" s="42">
+      <c r="I265" s="39">
         <f t="shared" si="9"/>
         <v>0.49066849759690406</v>
       </c>
@@ -31421,11 +31509,11 @@
       <c r="G266" s="31">
         <v>34747</v>
       </c>
-      <c r="H266" s="42">
+      <c r="H266" s="39">
         <f t="shared" si="8"/>
         <v>0.50490416890684253</v>
       </c>
-      <c r="I266" s="42">
+      <c r="I266" s="39">
         <f t="shared" si="9"/>
         <v>0.49509583109315741</v>
       </c>
@@ -31521,11 +31609,11 @@
       <c r="G267" s="31">
         <v>19721</v>
       </c>
-      <c r="H267" s="42">
+      <c r="H267" s="39">
         <f t="shared" si="8"/>
         <v>0.51826448018501003</v>
       </c>
-      <c r="I267" s="42">
+      <c r="I267" s="39">
         <f t="shared" si="9"/>
         <v>0.48173551981499002</v>
       </c>
@@ -31621,11 +31709,11 @@
       <c r="G268" s="31">
         <v>10054</v>
       </c>
-      <c r="H268" s="42">
+      <c r="H268" s="39">
         <f t="shared" si="8"/>
         <v>0.50310248198558849</v>
       </c>
-      <c r="I268" s="42">
+      <c r="I268" s="39">
         <f t="shared" si="9"/>
         <v>0.49689751801441151</v>
       </c>
@@ -31721,11 +31809,11 @@
       <c r="G269" s="31">
         <v>21737</v>
       </c>
-      <c r="H269" s="42">
+      <c r="H269" s="39">
         <f t="shared" si="8"/>
         <v>0.50001150139166839</v>
       </c>
-      <c r="I269" s="42">
+      <c r="I269" s="39">
         <f t="shared" si="9"/>
         <v>0.49998849860833161</v>
       </c>
@@ -31821,11 +31909,11 @@
       <c r="G270" s="31">
         <v>35603</v>
       </c>
-      <c r="H270" s="42">
+      <c r="H270" s="39">
         <f t="shared" si="8"/>
         <v>0.49554602900648609</v>
       </c>
-      <c r="I270" s="42">
+      <c r="I270" s="39">
         <f t="shared" si="9"/>
         <v>0.50445397099351386</v>
       </c>
@@ -31921,11 +32009,11 @@
       <c r="G271" s="31">
         <v>45957</v>
       </c>
-      <c r="H271" s="42">
+      <c r="H271" s="39">
         <f t="shared" si="8"/>
         <v>0.49967382086241763</v>
       </c>
-      <c r="I271" s="42">
+      <c r="I271" s="39">
         <f t="shared" si="9"/>
         <v>0.50032617913758237</v>
       </c>
@@ -32021,11 +32109,11 @@
       <c r="G272" s="31">
         <v>119008</v>
       </c>
-      <c r="H272" s="42">
+      <c r="H272" s="39">
         <f t="shared" si="8"/>
         <v>0.50582509828923605</v>
       </c>
-      <c r="I272" s="42">
+      <c r="I272" s="39">
         <f t="shared" si="9"/>
         <v>0.494174901710764</v>
       </c>
@@ -32121,11 +32209,11 @@
       <c r="G273" s="31">
         <v>29408</v>
       </c>
-      <c r="H273" s="42">
+      <c r="H273" s="39">
         <f t="shared" si="8"/>
         <v>0.51183514341409075</v>
       </c>
-      <c r="I273" s="42">
+      <c r="I273" s="39">
         <f t="shared" si="9"/>
         <v>0.48816485658590919</v>
       </c>
@@ -32221,11 +32309,11 @@
       <c r="G274" s="31">
         <v>11927</v>
       </c>
-      <c r="H274" s="42">
+      <c r="H274" s="39">
         <f t="shared" si="8"/>
         <v>0.49491680152703432</v>
       </c>
-      <c r="I274" s="42">
+      <c r="I274" s="39">
         <f t="shared" si="9"/>
         <v>0.50508319847296568</v>
       </c>
@@ -32321,11 +32409,11 @@
       <c r="G275" s="31">
         <v>32395</v>
       </c>
-      <c r="H275" s="42">
+      <c r="H275" s="39">
         <f t="shared" si="8"/>
         <v>0.4990679545839688</v>
       </c>
-      <c r="I275" s="42">
+      <c r="I275" s="39">
         <f t="shared" si="9"/>
         <v>0.5009320454160312</v>
       </c>
@@ -32421,11 +32509,11 @@
       <c r="G276" s="31">
         <v>41511</v>
       </c>
-      <c r="H276" s="42">
+      <c r="H276" s="39">
         <f t="shared" si="8"/>
         <v>0.49094650692465081</v>
       </c>
-      <c r="I276" s="42">
+      <c r="I276" s="39">
         <f t="shared" si="9"/>
         <v>0.50905349307534919</v>
       </c>
@@ -32521,11 +32609,11 @@
       <c r="G277" s="31">
         <v>13374</v>
       </c>
-      <c r="H277" s="42">
+      <c r="H277" s="39">
         <f t="shared" si="8"/>
         <v>0.50195165891007354</v>
       </c>
-      <c r="I277" s="42">
+      <c r="I277" s="39">
         <f t="shared" si="9"/>
         <v>0.49804834108992646</v>
       </c>
@@ -32621,11 +32709,11 @@
       <c r="G278" s="31">
         <v>33166</v>
       </c>
-      <c r="H278" s="42">
+      <c r="H278" s="39">
         <f t="shared" si="8"/>
         <v>0.50144388503348902</v>
       </c>
-      <c r="I278" s="42">
+      <c r="I278" s="39">
         <f t="shared" si="9"/>
         <v>0.49855611496651092</v>
       </c>
@@ -32721,11 +32809,11 @@
       <c r="G279" s="31">
         <v>20381</v>
       </c>
-      <c r="H279" s="42">
+      <c r="H279" s="39">
         <f t="shared" si="8"/>
         <v>0.5030358376937506</v>
       </c>
-      <c r="I279" s="42">
+      <c r="I279" s="39">
         <f t="shared" si="9"/>
         <v>0.4969641623062494</v>
       </c>
@@ -32821,11 +32909,11 @@
       <c r="G280" s="31">
         <v>18357</v>
       </c>
-      <c r="H280" s="42">
+      <c r="H280" s="39">
         <f t="shared" si="8"/>
         <v>0.49839813205907907</v>
       </c>
-      <c r="I280" s="42">
+      <c r="I280" s="39">
         <f t="shared" si="9"/>
         <v>0.50160186794092099</v>
       </c>
@@ -32921,11 +33009,11 @@
       <c r="G281" s="31">
         <v>19363</v>
       </c>
-      <c r="H281" s="42">
+      <c r="H281" s="39">
         <f t="shared" si="8"/>
         <v>0.50707065416644848</v>
       </c>
-      <c r="I281" s="42">
+      <c r="I281" s="39">
         <f t="shared" si="9"/>
         <v>0.49292934583355158</v>
       </c>
@@ -33021,11 +33109,11 @@
       <c r="G282" s="31">
         <v>3419</v>
       </c>
-      <c r="H282" s="42">
+      <c r="H282" s="39">
         <f t="shared" si="8"/>
         <v>0.48919731005866363</v>
       </c>
-      <c r="I282" s="42">
+      <c r="I282" s="39">
         <f t="shared" si="9"/>
         <v>0.51080268994133637</v>
       </c>
@@ -33121,11 +33209,11 @@
       <c r="G283" s="31">
         <v>22484</v>
       </c>
-      <c r="H283" s="42">
+      <c r="H283" s="39">
         <f t="shared" si="8"/>
         <v>0.5128532652083666</v>
       </c>
-      <c r="I283" s="42">
+      <c r="I283" s="39">
         <f t="shared" si="9"/>
         <v>0.4871467347916334</v>
       </c>
@@ -33221,11 +33309,11 @@
       <c r="G284" s="31">
         <v>15944</v>
       </c>
-      <c r="H284" s="42">
+      <c r="H284" s="39">
         <f t="shared" si="8"/>
         <v>0.4849443396800292</v>
       </c>
-      <c r="I284" s="42">
+      <c r="I284" s="39">
         <f t="shared" si="9"/>
         <v>0.51505566031997085</v>
       </c>
@@ -33321,11 +33409,11 @@
       <c r="G285" s="31">
         <v>35444</v>
       </c>
-      <c r="H285" s="42">
+      <c r="H285" s="39">
         <f t="shared" si="8"/>
         <v>0.49269520010008477</v>
       </c>
-      <c r="I285" s="42">
+      <c r="I285" s="39">
         <f t="shared" si="9"/>
         <v>0.50730479989991517</v>
       </c>
@@ -33421,11 +33509,11 @@
       <c r="G286" s="31">
         <v>7653</v>
       </c>
-      <c r="H286" s="42">
+      <c r="H286" s="39">
         <f t="shared" si="8"/>
         <v>0.49788562878147158</v>
       </c>
-      <c r="I286" s="42">
+      <c r="I286" s="39">
         <f t="shared" si="9"/>
         <v>0.50211437121852842</v>
       </c>
@@ -33521,11 +33609,11 @@
       <c r="G287" s="31">
         <v>11091</v>
       </c>
-      <c r="H287" s="42">
+      <c r="H287" s="39">
         <f t="shared" si="8"/>
         <v>0.50482476103777874</v>
       </c>
-      <c r="I287" s="42">
+      <c r="I287" s="39">
         <f t="shared" si="9"/>
         <v>0.49517523896222121</v>
       </c>
@@ -33621,11 +33709,11 @@
       <c r="G288" s="31">
         <v>13504</v>
       </c>
-      <c r="H288" s="42">
+      <c r="H288" s="39">
         <f t="shared" si="8"/>
         <v>0.50163447251114412</v>
       </c>
-      <c r="I288" s="42">
+      <c r="I288" s="39">
         <f t="shared" si="9"/>
         <v>0.49836552748885588</v>
       </c>
@@ -33721,11 +33809,11 @@
       <c r="G289" s="31">
         <v>33735</v>
       </c>
-      <c r="H289" s="42">
+      <c r="H289" s="39">
         <f t="shared" si="8"/>
         <v>0.50322205316387725</v>
       </c>
-      <c r="I289" s="42">
+      <c r="I289" s="39">
         <f t="shared" si="9"/>
         <v>0.49677794683612281</v>
       </c>
@@ -33821,11 +33909,11 @@
       <c r="G290" s="31">
         <v>46338</v>
       </c>
-      <c r="H290" s="42">
+      <c r="H290" s="39">
         <f t="shared" si="8"/>
         <v>0.49604984263600743</v>
       </c>
-      <c r="I290" s="42">
+      <c r="I290" s="39">
         <f t="shared" si="9"/>
         <v>0.50395015736399251</v>
       </c>
@@ -33921,11 +34009,11 @@
       <c r="G291" s="31">
         <v>14101</v>
       </c>
-      <c r="H291" s="42">
+      <c r="H291" s="39">
         <f t="shared" si="8"/>
         <v>0.49936256108789573</v>
       </c>
-      <c r="I291" s="42">
+      <c r="I291" s="39">
         <f t="shared" si="9"/>
         <v>0.50063743891210422</v>
       </c>
@@ -34021,11 +34109,11 @@
       <c r="G292" s="31">
         <v>26615</v>
       </c>
-      <c r="H292" s="42">
+      <c r="H292" s="39">
         <f t="shared" si="8"/>
         <v>0.50906621781875216</v>
       </c>
-      <c r="I292" s="42">
+      <c r="I292" s="39">
         <f t="shared" si="9"/>
         <v>0.49093378218124784</v>
       </c>
@@ -34121,11 +34209,11 @@
       <c r="G293" s="31">
         <v>16106</v>
       </c>
-      <c r="H293" s="42">
+      <c r="H293" s="39">
         <f t="shared" si="8"/>
         <v>0.49231239492587497</v>
       </c>
-      <c r="I293" s="42">
+      <c r="I293" s="39">
         <f t="shared" si="9"/>
         <v>0.50768760507412503</v>
       </c>
@@ -34221,11 +34309,11 @@
       <c r="G294" s="31">
         <v>6940</v>
       </c>
-      <c r="H294" s="42">
+      <c r="H294" s="39">
         <f t="shared" si="8"/>
         <v>0.50220710615818798</v>
       </c>
-      <c r="I294" s="42">
+      <c r="I294" s="39">
         <f t="shared" si="9"/>
         <v>0.49779289384181202</v>
       </c>
@@ -34321,11 +34409,11 @@
       <c r="G295" s="31">
         <v>51449</v>
       </c>
-      <c r="H295" s="42">
+      <c r="H295" s="39">
         <f t="shared" si="8"/>
         <v>0.51145705963635646</v>
       </c>
-      <c r="I295" s="42">
+      <c r="I295" s="39">
         <f t="shared" si="9"/>
         <v>0.4885429403636436</v>
       </c>
@@ -34421,11 +34509,11 @@
       <c r="G296" s="31">
         <v>37036</v>
       </c>
-      <c r="H296" s="42">
+      <c r="H296" s="39">
         <f t="shared" si="8"/>
         <v>0.50394600772873233</v>
       </c>
-      <c r="I296" s="42">
+      <c r="I296" s="39">
         <f t="shared" si="9"/>
         <v>0.49605399227126762</v>
       </c>
@@ -34521,11 +34609,11 @@
       <c r="G297" s="31">
         <v>36381</v>
       </c>
-      <c r="H297" s="42">
+      <c r="H297" s="39">
         <f t="shared" si="8"/>
         <v>0.49614062840933887</v>
       </c>
-      <c r="I297" s="42">
+      <c r="I297" s="39">
         <f t="shared" si="9"/>
         <v>0.50385937159066119</v>
       </c>
@@ -34621,11 +34709,11 @@
       <c r="G298" s="31">
         <v>51170</v>
       </c>
-      <c r="H298" s="42">
+      <c r="H298" s="39">
         <f t="shared" si="8"/>
         <v>0.509859407538785</v>
       </c>
-      <c r="I298" s="42">
+      <c r="I298" s="39">
         <f t="shared" si="9"/>
         <v>0.490140592461215</v>
       </c>
@@ -34721,11 +34809,11 @@
       <c r="G299" s="31">
         <v>30793</v>
       </c>
-      <c r="H299" s="42">
+      <c r="H299" s="39">
         <f t="shared" si="8"/>
         <v>0.50551597333946219</v>
       </c>
-      <c r="I299" s="42">
+      <c r="I299" s="39">
         <f t="shared" si="9"/>
         <v>0.49448402666053781</v>
       </c>
@@ -34821,11 +34909,11 @@
       <c r="G300" s="31">
         <v>31223</v>
       </c>
-      <c r="H300" s="42">
+      <c r="H300" s="39">
         <f t="shared" si="8"/>
         <v>0.51673176221368988</v>
       </c>
-      <c r="I300" s="42">
+      <c r="I300" s="39">
         <f t="shared" si="9"/>
         <v>0.48326823778631006</v>
       </c>
@@ -34921,11 +35009,11 @@
       <c r="G301" s="31">
         <v>5038</v>
       </c>
-      <c r="H301" s="42">
+      <c r="H301" s="39">
         <f t="shared" si="8"/>
         <v>0.51423905277125648</v>
       </c>
-      <c r="I301" s="42">
+      <c r="I301" s="39">
         <f t="shared" si="9"/>
         <v>0.48576094722874347</v>
       </c>
@@ -35021,11 +35109,11 @@
       <c r="G302" s="31">
         <v>11115</v>
       </c>
-      <c r="H302" s="42">
+      <c r="H302" s="39">
         <f t="shared" si="8"/>
         <v>0.51856862928058223</v>
       </c>
-      <c r="I302" s="42">
+      <c r="I302" s="39">
         <f t="shared" si="9"/>
         <v>0.48143137071941777</v>
       </c>
@@ -35121,11 +35209,11 @@
       <c r="G303" s="31">
         <v>23192</v>
       </c>
-      <c r="H303" s="42">
+      <c r="H303" s="39">
         <f t="shared" si="8"/>
         <v>0.50789479447254893</v>
       </c>
-      <c r="I303" s="42">
+      <c r="I303" s="39">
         <f t="shared" si="9"/>
         <v>0.49210520552745113</v>
       </c>
@@ -35221,11 +35309,11 @@
       <c r="G304" s="31">
         <v>8999</v>
       </c>
-      <c r="H304" s="42">
+      <c r="H304" s="39">
         <f t="shared" si="8"/>
         <v>0.51124872173616631</v>
       </c>
-      <c r="I304" s="42">
+      <c r="I304" s="39">
         <f t="shared" si="9"/>
         <v>0.48875127826383363</v>
       </c>
@@ -35321,11 +35409,11 @@
       <c r="G305" s="31">
         <v>6198</v>
       </c>
-      <c r="H305" s="42">
+      <c r="H305" s="39">
         <f t="shared" si="8"/>
         <v>0.50670372792674956</v>
       </c>
-      <c r="I305" s="42">
+      <c r="I305" s="39">
         <f t="shared" si="9"/>
         <v>0.4932962720732505</v>
       </c>
@@ -35421,11 +35509,11 @@
       <c r="G306" s="31">
         <v>6833</v>
       </c>
-      <c r="H306" s="42">
+      <c r="H306" s="39">
         <f t="shared" si="8"/>
         <v>0.50091635510593069</v>
       </c>
-      <c r="I306" s="42">
+      <c r="I306" s="39">
         <f t="shared" si="9"/>
         <v>0.49908364489406937</v>
       </c>
@@ -35521,11 +35609,11 @@
       <c r="G307" s="31">
         <v>3699</v>
       </c>
-      <c r="H307" s="42">
+      <c r="H307" s="39">
         <f t="shared" si="8"/>
         <v>0.51126468555632343</v>
       </c>
-      <c r="I307" s="42">
+      <c r="I307" s="39">
         <f t="shared" si="9"/>
         <v>0.48873531444367657</v>
       </c>
@@ -35621,11 +35709,11 @@
       <c r="G308" s="31">
         <v>16768</v>
       </c>
-      <c r="H308" s="42">
+      <c r="H308" s="39">
         <f t="shared" si="8"/>
         <v>0.4994638389133802</v>
       </c>
-      <c r="I308" s="42">
+      <c r="I308" s="39">
         <f t="shared" si="9"/>
         <v>0.5005361610866198</v>
       </c>
@@ -35721,11 +35809,11 @@
       <c r="G309" s="31">
         <v>5727</v>
       </c>
-      <c r="H309" s="42">
+      <c r="H309" s="39">
         <f t="shared" si="8"/>
         <v>0.49930252833478639</v>
       </c>
-      <c r="I309" s="42">
+      <c r="I309" s="39">
         <f t="shared" si="9"/>
         <v>0.50069747166521361</v>
       </c>
@@ -35821,11 +35909,11 @@
       <c r="G310" s="31">
         <v>6343</v>
       </c>
-      <c r="H310" s="42">
+      <c r="H310" s="39">
         <f t="shared" si="8"/>
         <v>0.51552340702210664</v>
       </c>
-      <c r="I310" s="42">
+      <c r="I310" s="39">
         <f t="shared" si="9"/>
         <v>0.48447659297789336</v>
       </c>
@@ -35921,11 +36009,11 @@
       <c r="G311" s="31">
         <v>58205</v>
       </c>
-      <c r="H311" s="42">
+      <c r="H311" s="39">
         <f t="shared" si="8"/>
         <v>0.52199452939330071</v>
       </c>
-      <c r="I311" s="42">
+      <c r="I311" s="39">
         <f t="shared" si="9"/>
         <v>0.47800547060669923</v>
       </c>
@@ -36021,11 +36109,11 @@
       <c r="G312" s="31">
         <v>4563</v>
       </c>
-      <c r="H312" s="42">
+      <c r="H312" s="39">
         <f t="shared" si="8"/>
         <v>0.52112836911831883</v>
       </c>
-      <c r="I312" s="42">
+      <c r="I312" s="39">
         <f t="shared" si="9"/>
         <v>0.47887163088168111</v>
       </c>
@@ -36121,11 +36209,11 @@
       <c r="G313" s="31">
         <v>8317</v>
       </c>
-      <c r="H313" s="42">
+      <c r="H313" s="39">
         <f t="shared" si="8"/>
         <v>0.50657814593738582</v>
       </c>
-      <c r="I313" s="42">
+      <c r="I313" s="39">
         <f t="shared" si="9"/>
         <v>0.49342185406261418</v>
       </c>
@@ -36221,11 +36309,11 @@
       <c r="G314" s="31">
         <v>34130</v>
       </c>
-      <c r="H314" s="42">
+      <c r="H314" s="39">
         <f t="shared" si="8"/>
         <v>0.51416863767155274</v>
       </c>
-      <c r="I314" s="42">
+      <c r="I314" s="39">
         <f t="shared" si="9"/>
         <v>0.48583136232844726</v>
       </c>
@@ -36321,11 +36409,11 @@
       <c r="G315" s="31">
         <v>28330</v>
       </c>
-      <c r="H315" s="42">
+      <c r="H315" s="39">
         <f t="shared" si="8"/>
         <v>0.50464925718764475</v>
       </c>
-      <c r="I315" s="42">
+      <c r="I315" s="39">
         <f t="shared" si="9"/>
         <v>0.49535074281235525</v>
       </c>
@@ -36421,11 +36509,11 @@
       <c r="G316" s="31">
         <v>14186</v>
       </c>
-      <c r="H316" s="42">
+      <c r="H316" s="39">
         <f t="shared" si="8"/>
         <v>0.5156482861400894</v>
       </c>
-      <c r="I316" s="42">
+      <c r="I316" s="39">
         <f t="shared" si="9"/>
         <v>0.4843517138599106</v>
       </c>
@@ -36521,11 +36609,11 @@
       <c r="G317" s="31">
         <v>28039</v>
       </c>
-      <c r="H317" s="42">
+      <c r="H317" s="39">
         <f t="shared" si="8"/>
         <v>0.52354544775562029</v>
       </c>
-      <c r="I317" s="42">
+      <c r="I317" s="39">
         <f t="shared" si="9"/>
         <v>0.47645455224437971</v>
       </c>
@@ -36621,11 +36709,11 @@
       <c r="G318" s="31">
         <v>6135</v>
       </c>
-      <c r="H318" s="42">
+      <c r="H318" s="39">
         <f t="shared" si="8"/>
         <v>0.52467288121098088</v>
       </c>
-      <c r="I318" s="42">
+      <c r="I318" s="39">
         <f t="shared" si="9"/>
         <v>0.47532711878901907</v>
       </c>
@@ -36721,11 +36809,11 @@
       <c r="G319" s="31">
         <v>15045</v>
       </c>
-      <c r="H319" s="42">
+      <c r="H319" s="39">
         <f t="shared" si="8"/>
         <v>0.53588601959038296</v>
       </c>
-      <c r="I319" s="42">
+      <c r="I319" s="39">
         <f t="shared" si="9"/>
         <v>0.4641139804096171</v>
       </c>
@@ -36821,11 +36909,11 @@
       <c r="G320" s="31">
         <v>6476</v>
       </c>
-      <c r="H320" s="42">
+      <c r="H320" s="39">
         <f t="shared" si="8"/>
         <v>0.51319438941279027</v>
       </c>
-      <c r="I320" s="42">
+      <c r="I320" s="39">
         <f t="shared" si="9"/>
         <v>0.48680561058720978</v>
       </c>
@@ -36921,11 +37009,11 @@
       <c r="G321" s="31">
         <v>11727</v>
       </c>
-      <c r="H321" s="42">
+      <c r="H321" s="39">
         <f t="shared" si="8"/>
         <v>0.52322312943381077</v>
       </c>
-      <c r="I321" s="42">
+      <c r="I321" s="39">
         <f t="shared" si="9"/>
         <v>0.47677687056618928</v>
       </c>
@@ -37021,11 +37109,11 @@
       <c r="G322" s="31">
         <v>82700</v>
       </c>
-      <c r="H322" s="42">
+      <c r="H322" s="39">
         <f t="shared" si="8"/>
         <v>0.51739239239239243</v>
       </c>
-      <c r="I322" s="42">
+      <c r="I322" s="39">
         <f t="shared" si="9"/>
         <v>0.48260760760760762</v>
       </c>
@@ -37121,11 +37209,11 @@
       <c r="G323" s="31">
         <v>31363</v>
       </c>
-      <c r="H323" s="42">
+      <c r="H323" s="39">
         <f t="shared" si="8"/>
         <v>0.50660657750209992</v>
       </c>
-      <c r="I323" s="42">
+      <c r="I323" s="39">
         <f t="shared" si="9"/>
         <v>0.49339342249790014</v>
       </c>
@@ -37221,11 +37309,11 @@
       <c r="G324" s="31">
         <v>13209</v>
       </c>
-      <c r="H324" s="42">
+      <c r="H324" s="39">
         <f t="shared" si="8"/>
         <v>0.5352323838080959</v>
       </c>
-      <c r="I324" s="42">
+      <c r="I324" s="39">
         <f t="shared" si="9"/>
         <v>0.46476761619190404</v>
       </c>
@@ -37321,11 +37409,11 @@
       <c r="G325" s="31">
         <v>4452</v>
       </c>
-      <c r="H325" s="42">
+      <c r="H325" s="39">
         <f t="shared" si="8"/>
         <v>0.535289166766863</v>
       </c>
-      <c r="I325" s="42">
+      <c r="I325" s="39">
         <f t="shared" si="9"/>
         <v>0.46471083323313694</v>
       </c>
@@ -37421,11 +37509,11 @@
       <c r="G326" s="31">
         <v>9624</v>
       </c>
-      <c r="H326" s="42">
+      <c r="H326" s="39">
         <f t="shared" si="8"/>
         <v>0.50714022237445333</v>
       </c>
-      <c r="I326" s="42">
+      <c r="I326" s="39">
         <f t="shared" si="9"/>
         <v>0.49285977762554672</v>
       </c>
@@ -37521,11 +37609,11 @@
       <c r="G327" s="31">
         <v>14311</v>
       </c>
-      <c r="H327" s="42">
+      <c r="H327" s="39">
         <f t="shared" ref="H327:H346" si="10">+G327/E327</f>
         <v>0.52317759742633618</v>
       </c>
-      <c r="I327" s="42">
+      <c r="I327" s="39">
         <f t="shared" ref="I327:I346" si="11">+F327/E327</f>
         <v>0.47682240257366382</v>
       </c>
@@ -37621,11 +37709,11 @@
       <c r="G328" s="31">
         <v>21393</v>
       </c>
-      <c r="H328" s="42">
+      <c r="H328" s="39">
         <f t="shared" si="10"/>
         <v>0.51120722615178738</v>
       </c>
-      <c r="I328" s="42">
+      <c r="I328" s="39">
         <f t="shared" si="11"/>
         <v>0.48879277384821257</v>
       </c>
@@ -37721,11 +37809,11 @@
       <c r="G329" s="31">
         <v>74824</v>
       </c>
-      <c r="H329" s="42">
+      <c r="H329" s="39">
         <f t="shared" si="10"/>
         <v>0.51291472443103925</v>
       </c>
-      <c r="I329" s="42">
+      <c r="I329" s="39">
         <f t="shared" si="11"/>
         <v>0.48708527556896081</v>
       </c>
@@ -37821,11 +37909,11 @@
       <c r="G330" s="31">
         <v>11715</v>
       </c>
-      <c r="H330" s="42">
+      <c r="H330" s="39">
         <f t="shared" si="10"/>
         <v>0.52975490639413947</v>
       </c>
-      <c r="I330" s="42">
+      <c r="I330" s="39">
         <f t="shared" si="11"/>
         <v>0.47024509360586053</v>
       </c>
@@ -37921,11 +38009,11 @@
       <c r="G331" s="31">
         <v>15437</v>
       </c>
-      <c r="H331" s="42">
+      <c r="H331" s="39">
         <f t="shared" si="10"/>
         <v>0.5326225718524652</v>
       </c>
-      <c r="I331" s="42">
+      <c r="I331" s="39">
         <f t="shared" si="11"/>
         <v>0.46737742814753475</v>
       </c>
@@ -38021,11 +38109,11 @@
       <c r="G332" s="31">
         <v>8543</v>
       </c>
-      <c r="H332" s="42">
+      <c r="H332" s="39">
         <f t="shared" si="10"/>
         <v>0.52241178988564785</v>
       </c>
-      <c r="I332" s="42">
+      <c r="I332" s="39">
         <f t="shared" si="11"/>
         <v>0.4775882101143521</v>
       </c>
@@ -38121,11 +38209,11 @@
       <c r="G333" s="31">
         <v>25109</v>
       </c>
-      <c r="H333" s="42">
+      <c r="H333" s="39">
         <f t="shared" si="10"/>
         <v>0.51988736360436461</v>
       </c>
-      <c r="I333" s="42">
+      <c r="I333" s="39">
         <f t="shared" si="11"/>
         <v>0.48011263639563534</v>
       </c>
@@ -38221,11 +38309,11 @@
       <c r="G334" s="31">
         <v>8777</v>
       </c>
-      <c r="H334" s="42">
+      <c r="H334" s="39">
         <f t="shared" si="10"/>
         <v>0.50474437863016852</v>
       </c>
-      <c r="I334" s="42">
+      <c r="I334" s="39">
         <f t="shared" si="11"/>
         <v>0.49525562136983148</v>
       </c>
@@ -38321,11 +38409,11 @@
       <c r="G335" s="31">
         <v>9454</v>
       </c>
-      <c r="H335" s="42">
+      <c r="H335" s="39">
         <f t="shared" si="10"/>
         <v>0.51374850559721774</v>
       </c>
-      <c r="I335" s="42">
+      <c r="I335" s="39">
         <f t="shared" si="11"/>
         <v>0.48625149440278231</v>
       </c>
@@ -38421,11 +38509,11 @@
       <c r="G336" s="31">
         <v>3200</v>
       </c>
-      <c r="H336" s="42">
+      <c r="H336" s="39">
         <f t="shared" si="10"/>
         <v>0.5072119194801078</v>
       </c>
-      <c r="I336" s="42">
+      <c r="I336" s="39">
         <f t="shared" si="11"/>
         <v>0.4927880805198922</v>
       </c>
@@ -38521,11 +38609,11 @@
       <c r="G337" s="31">
         <v>3268</v>
       </c>
-      <c r="H337" s="42">
+      <c r="H337" s="39">
         <f t="shared" si="10"/>
         <v>0.50276923076923075</v>
       </c>
-      <c r="I337" s="42">
+      <c r="I337" s="39">
         <f t="shared" si="11"/>
         <v>0.49723076923076925</v>
       </c>
@@ -38621,11 +38709,11 @@
       <c r="G338" s="31">
         <v>4575</v>
       </c>
-      <c r="H338" s="42">
+      <c r="H338" s="39">
         <f t="shared" si="10"/>
         <v>0.50131492439184744</v>
       </c>
-      <c r="I338" s="42">
+      <c r="I338" s="39">
         <f t="shared" si="11"/>
         <v>0.49868507560815251</v>
       </c>
@@ -38721,11 +38809,11 @@
       <c r="G339" s="31">
         <v>16402</v>
       </c>
-      <c r="H339" s="42">
+      <c r="H339" s="39">
         <f t="shared" si="10"/>
         <v>0.50926817151550907</v>
       </c>
-      <c r="I339" s="42">
+      <c r="I339" s="39">
         <f t="shared" si="11"/>
         <v>0.49073182848449093</v>
       </c>
@@ -38821,11 +38909,11 @@
       <c r="G340" s="31">
         <v>14745</v>
       </c>
-      <c r="H340" s="42">
+      <c r="H340" s="39">
         <f t="shared" si="10"/>
         <v>0.51141093229744727</v>
       </c>
-      <c r="I340" s="42">
+      <c r="I340" s="39">
         <f t="shared" si="11"/>
         <v>0.48858906770255273</v>
       </c>
@@ -38921,11 +39009,11 @@
       <c r="G341" s="31">
         <v>11833</v>
       </c>
-      <c r="H341" s="42">
+      <c r="H341" s="39">
         <f t="shared" si="10"/>
         <v>0.50456251066007163</v>
       </c>
-      <c r="I341" s="42">
+      <c r="I341" s="39">
         <f t="shared" si="11"/>
         <v>0.49543748933992837</v>
       </c>
@@ -39021,11 +39109,11 @@
       <c r="G342" s="31">
         <v>20352</v>
       </c>
-      <c r="H342" s="42">
+      <c r="H342" s="39">
         <f t="shared" si="10"/>
         <v>0.511601015560192</v>
       </c>
-      <c r="I342" s="42">
+      <c r="I342" s="39">
         <f t="shared" si="11"/>
         <v>0.48839898443980795</v>
       </c>
@@ -39121,11 +39209,11 @@
       <c r="G343" s="31">
         <v>4507</v>
       </c>
-      <c r="H343" s="42">
+      <c r="H343" s="39">
         <f t="shared" si="10"/>
         <v>0.5090354641969731</v>
       </c>
-      <c r="I343" s="42">
+      <c r="I343" s="39">
         <f t="shared" si="11"/>
         <v>0.4909645358030269</v>
       </c>
@@ -39221,11 +39309,11 @@
       <c r="G344" s="31">
         <v>6855</v>
       </c>
-      <c r="H344" s="42">
+      <c r="H344" s="39">
         <f t="shared" si="10"/>
         <v>0.51908223534756925</v>
       </c>
-      <c r="I344" s="42">
+      <c r="I344" s="39">
         <f t="shared" si="11"/>
         <v>0.48091776465243069</v>
       </c>
@@ -39321,11 +39409,11 @@
       <c r="G345" s="38">
         <v>11536</v>
       </c>
-      <c r="H345" s="42">
+      <c r="H345" s="39">
         <f t="shared" si="10"/>
         <v>0.50797005724350508</v>
       </c>
-      <c r="I345" s="42">
+      <c r="I345" s="39">
         <f t="shared" si="11"/>
         <v>0.49202994275649492</v>
       </c>
@@ -39408,16 +39496,16 @@
       <c r="E346" s="26"/>
       <c r="F346" s="26"/>
       <c r="G346" s="26"/>
-      <c r="H346" s="42" t="e">
+      <c r="H346" s="39" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I346" s="42" t="e">
+      <c r="I346" s="39" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J346" s="42"/>
-      <c r="K346" s="42"/>
+      <c r="J346" s="39"/>
+      <c r="K346" s="39"/>
       <c r="L346" s="26"/>
       <c r="M346" s="26"/>
       <c r="N346" s="26"/>
@@ -39457,6 +39545,205 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFD5627-C7B7-41CB-B8FF-ED3219DDB42A}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="48" t="s">
+        <v>388</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="48" t="s">
+        <v>395</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="48" t="s">
+        <v>396</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="48" t="s">
+        <v>401</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="48" t="s">
+        <v>403</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E3E4F1-E307-4B6D-B622-49792E42CFD9}">
   <dimension ref="B4:B24"/>
   <sheetViews>

--- a/Guatemala/CENSO 2018/Cuadro A1 - Población total por sexo, grupos quinquenales de edad y área.xlsx
+++ b/Guatemala/CENSO 2018/Cuadro A1 - Población total por sexo, grupos quinquenales de edad y área.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\Guatemala\CENSO 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D610CC92-1202-47EE-A787-93D04EBAE5CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3273BDC2-5DD4-449C-ADC2-86B543AC4B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1_1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="408">
   <si>
     <t>Características generales de la población. Censo 2018</t>
   </si>
@@ -1275,7 +1275,7 @@
     <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
     <numFmt numFmtId="165" formatCode=".\ \ \ \ ##0;000000000000000000000000000000000000000000000000000000000000000000000000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1346,6 +1346,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1441,7 +1448,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1532,21 +1539,7 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1556,7 +1549,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -1565,6 +1575,42 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="36">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2734,42 +2780,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2784,45 +2794,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{546BF888-D580-4725-885E-A188B7B4DE5C}" name="Población" displayName="Población" ref="A5:AF346" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" headerRowCellStyle="Neutral">
-  <autoFilter ref="A5:AF346" xr:uid="{D55912E5-1C26-43B0-946A-8B7E12ABC44F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{546BF888-D580-4725-885E-A188B7B4DE5C}" name="Población" displayName="Población" ref="A5:AF345" totalsRowShown="0" headerRowDxfId="0" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" headerRowCellStyle="Neutral">
+  <autoFilter ref="A5:AF345" xr:uid="{D55912E5-1C26-43B0-946A-8B7E12ABC44F}"/>
   <tableColumns count="32">
-    <tableColumn id="1" xr3:uid="{DB55B1E0-A2B5-4316-A586-9DD10EEC3F35}" name="Código" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{D1FA5CAD-96F6-4092-BC59-1ED5003A6D0B}" name="Departamento" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{D777CC2F-288A-4FE5-8C2C-A1B3DFEEC461}" name="Código2" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{C3CFAA88-C320-4FA7-B344-FCB29882EAC4}" name="Municipio" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{FC39CA06-A055-4C3C-AA36-B131CF11A2E7}" name="Población total" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{5149E000-011C-4882-80D6-7A748FFB914F}" name="Hombres" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{E4728424-5B5D-4E25-8C46-66813CEFFE84}" name="Mujeres" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{E95DB9E1-0743-4B9A-A1BC-8C798E74547D}" name="Mujeres (%)" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{DB55B1E0-A2B5-4316-A586-9DD10EEC3F35}" name="Código" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{D1FA5CAD-96F6-4092-BC59-1ED5003A6D0B}" name="Departamento" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{D777CC2F-288A-4FE5-8C2C-A1B3DFEEC461}" name="Código2" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{C3CFAA88-C320-4FA7-B344-FCB29882EAC4}" name="Municipio" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{FC39CA06-A055-4C3C-AA36-B131CF11A2E7}" name="Población total" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{5149E000-011C-4882-80D6-7A748FFB914F}" name="Hombres" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{E4728424-5B5D-4E25-8C46-66813CEFFE84}" name="Mujeres" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{E95DB9E1-0743-4B9A-A1BC-8C798E74547D}" name="Mujeres (%)" dataDxfId="25">
       <calculatedColumnFormula>+G6/E6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{86FD656C-558A-4685-9839-47786D326705}" name="Hombres (%)" dataDxfId="23">
+    <tableColumn id="9" xr3:uid="{86FD656C-558A-4685-9839-47786D326705}" name="Hombres (%)" dataDxfId="24">
       <calculatedColumnFormula>+F6/E6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A24039F6-0B63-49D8-812B-B25BC91DCBFC}" name="Población Urbana" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{C0280005-2A6A-4B45-A58A-403557F9CF19}" name="Población Rural" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{7AD343E0-720E-42BC-8AC3-3E4517CBC210}" name="0 - 4" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{5D6712F7-339F-42D4-B507-E4D6D77191EF}" name="5 - 9" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{220E970C-F5F8-4F05-8F6A-9B343E1ADEB9}" name="10 - 14" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{EC871ABA-95EA-4115-B6E1-EF5E3E02D692}" name="15 - 19" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{3718FBF9-6C9D-4158-8B81-6B9575897893}" name="20 - 24" dataDxfId="16"/>
-    <tableColumn id="17" xr3:uid="{601BF7D3-51AC-4642-8BEF-55E039D34AC4}" name="25 - 29" dataDxfId="15"/>
-    <tableColumn id="18" xr3:uid="{F6A78843-F959-45DC-945D-F70AD769B4A5}" name="30 - 34" dataDxfId="14"/>
-    <tableColumn id="19" xr3:uid="{9BC807B2-56CD-4B83-A887-284A05509898}" name="35 - 39" dataDxfId="13"/>
-    <tableColumn id="20" xr3:uid="{78047AC1-083A-46D8-8CFA-B7A9D438AE8B}" name="40 - 44" dataDxfId="12"/>
-    <tableColumn id="21" xr3:uid="{D1562DAE-5A21-4A6C-A4F1-90EA4AA53980}" name="45 - 49" dataDxfId="11"/>
-    <tableColumn id="22" xr3:uid="{8BEB8C07-4031-4165-8DA3-0C2FB8935D92}" name="50 - 54" dataDxfId="10"/>
-    <tableColumn id="23" xr3:uid="{787E8BD7-7078-49EA-9F5F-E0B9E30254ED}" name="55 - 59" dataDxfId="9"/>
-    <tableColumn id="24" xr3:uid="{64C389BE-EB12-4041-B7D5-76CB08038ADB}" name="60 - 64" dataDxfId="8"/>
-    <tableColumn id="25" xr3:uid="{7D9355F4-A596-466B-A694-7A75DCE8D058}" name="65 - 69" dataDxfId="7"/>
-    <tableColumn id="26" xr3:uid="{B16FC9DC-8DA8-4427-9B9B-6D303002260E}" name="70  - 74" dataDxfId="6"/>
-    <tableColumn id="27" xr3:uid="{04E241A5-DCE6-4668-8621-4259A10CA17C}" name="75 - 79" dataDxfId="5"/>
-    <tableColumn id="28" xr3:uid="{B4D1E386-BA04-4D7B-8595-5F810562810D}" name="80 - 84" dataDxfId="4"/>
-    <tableColumn id="29" xr3:uid="{5E379281-EA41-4923-A933-0D7BAA3E0658}" name="85 - 89" dataDxfId="3"/>
-    <tableColumn id="30" xr3:uid="{87C29544-601A-4264-B7DA-649281A9F8C6}" name="90  - 94" dataDxfId="2"/>
-    <tableColumn id="31" xr3:uid="{0D140DB5-4DEB-482E-AD30-26E2AB86C0C9}" name="95 - 99" dataDxfId="1"/>
-    <tableColumn id="32" xr3:uid="{B246ADB6-24B4-4CD3-AA15-35A00ED6F3E1}" name="100 o más" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{A24039F6-0B63-49D8-812B-B25BC91DCBFC}" name="Población Urbana" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{C0280005-2A6A-4B45-A58A-403557F9CF19}" name="Población Rural" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{7AD343E0-720E-42BC-8AC3-3E4517CBC210}" name="0 - 4" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{5D6712F7-339F-42D4-B507-E4D6D77191EF}" name="5 - 9" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{220E970C-F5F8-4F05-8F6A-9B343E1ADEB9}" name="10 - 14" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{EC871ABA-95EA-4115-B6E1-EF5E3E02D692}" name="15 - 19" dataDxfId="18"/>
+    <tableColumn id="16" xr3:uid="{3718FBF9-6C9D-4158-8B81-6B9575897893}" name="20 - 24" dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{601BF7D3-51AC-4642-8BEF-55E039D34AC4}" name="25 - 29" dataDxfId="16"/>
+    <tableColumn id="18" xr3:uid="{F6A78843-F959-45DC-945D-F70AD769B4A5}" name="30 - 34" dataDxfId="15"/>
+    <tableColumn id="19" xr3:uid="{9BC807B2-56CD-4B83-A887-284A05509898}" name="35 - 39" dataDxfId="14"/>
+    <tableColumn id="20" xr3:uid="{78047AC1-083A-46D8-8CFA-B7A9D438AE8B}" name="40 - 44" dataDxfId="13"/>
+    <tableColumn id="21" xr3:uid="{D1562DAE-5A21-4A6C-A4F1-90EA4AA53980}" name="45 - 49" dataDxfId="12"/>
+    <tableColumn id="22" xr3:uid="{8BEB8C07-4031-4165-8DA3-0C2FB8935D92}" name="50 - 54" dataDxfId="11"/>
+    <tableColumn id="23" xr3:uid="{787E8BD7-7078-49EA-9F5F-E0B9E30254ED}" name="55 - 59" dataDxfId="10"/>
+    <tableColumn id="24" xr3:uid="{64C389BE-EB12-4041-B7D5-76CB08038ADB}" name="60 - 64" dataDxfId="9"/>
+    <tableColumn id="25" xr3:uid="{7D9355F4-A596-466B-A694-7A75DCE8D058}" name="65 - 69" dataDxfId="8"/>
+    <tableColumn id="26" xr3:uid="{B16FC9DC-8DA8-4427-9B9B-6D303002260E}" name="70  - 74" dataDxfId="7"/>
+    <tableColumn id="27" xr3:uid="{04E241A5-DCE6-4668-8621-4259A10CA17C}" name="75 - 79" dataDxfId="6"/>
+    <tableColumn id="28" xr3:uid="{B4D1E386-BA04-4D7B-8595-5F810562810D}" name="80 - 84" dataDxfId="5"/>
+    <tableColumn id="29" xr3:uid="{5E379281-EA41-4923-A933-0D7BAA3E0658}" name="85 - 89" dataDxfId="4"/>
+    <tableColumn id="30" xr3:uid="{87C29544-601A-4264-B7DA-649281A9F8C6}" name="90  - 94" dataDxfId="3"/>
+    <tableColumn id="31" xr3:uid="{0D140DB5-4DEB-482E-AD30-26E2AB86C0C9}" name="95 - 99" dataDxfId="2"/>
+    <tableColumn id="32" xr3:uid="{B246ADB6-24B4-4CD3-AA15-35A00ED6F3E1}" name="100 o más" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3107,7 +3117,9 @@
   </sheetPr>
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:Z31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3136,51 +3148,51 @@
       </c>
     </row>
     <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="45" t="s">
+      <c r="E5" s="43"/>
+      <c r="F5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45" t="s">
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="45"/>
+      <c r="AB5" s="41"/>
     </row>
     <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
@@ -5344,10 +5356,10 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH346"/>
+  <dimension ref="A1:AF345"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:AF5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:AF345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5389,101 +5401,101 @@
       </c>
       <c r="C2" s="28"/>
     </row>
-    <row r="5" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:32" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="44" t="s">
         <v>384</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="46" t="s">
         <v>381</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="47" t="s">
         <v>383</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="44" t="s">
+      <c r="M5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="44" t="s">
+      <c r="N5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="44" t="s">
+      <c r="O5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="44" t="s">
+      <c r="Q5" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="44" t="s">
+      <c r="R5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="44" t="s">
+      <c r="S5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="44" t="s">
+      <c r="T5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="44" t="s">
+      <c r="U5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="44" t="s">
+      <c r="V5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="44" t="s">
+      <c r="W5" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="44" t="s">
+      <c r="X5" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="Y5" s="44" t="s">
+      <c r="Y5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="Z5" s="44" t="s">
+      <c r="Z5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="AA5" s="44" t="s">
+      <c r="AA5" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="AB5" s="44" t="s">
+      <c r="AB5" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="AC5" s="44" t="s">
+      <c r="AC5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="AD5" s="44" t="s">
+      <c r="AD5" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AE5" s="44" t="s">
+      <c r="AE5" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AF5" s="44" t="s">
+      <c r="AF5" s="48" t="s">
         <v>30</v>
       </c>
     </row>
@@ -37610,11 +37622,11 @@
         <v>14311</v>
       </c>
       <c r="H327" s="39">
-        <f t="shared" ref="H327:H346" si="10">+G327/E327</f>
+        <f t="shared" ref="H327:H345" si="10">+G327/E327</f>
         <v>0.52317759742633618</v>
       </c>
       <c r="I327" s="39">
-        <f t="shared" ref="I327:I346" si="11">+F327/E327</f>
+        <f t="shared" ref="I327:I345" si="11">+F327/E327</f>
         <v>0.47682240257366382</v>
       </c>
       <c r="J327" s="31">
@@ -38587,7 +38599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A337" s="10">
         <v>22</v>
       </c>
@@ -38687,7 +38699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A338" s="10">
         <v>22</v>
       </c>
@@ -38787,7 +38799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A339" s="10">
         <v>22</v>
       </c>
@@ -38887,7 +38899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A340" s="10">
         <v>22</v>
       </c>
@@ -38987,7 +38999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A341" s="10">
         <v>22</v>
       </c>
@@ -39087,7 +39099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A342" s="10">
         <v>22</v>
       </c>
@@ -39187,7 +39199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A343" s="10">
         <v>22</v>
       </c>
@@ -39287,7 +39299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A344" s="10">
         <v>22</v>
       </c>
@@ -39387,7 +39399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A345" s="21">
         <v>22</v>
       </c>
@@ -39486,49 +39498,6 @@
       <c r="AF345" s="38">
         <v>2</v>
       </c>
-    </row>
-    <row r="346" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A346" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B346" s="11"/>
-      <c r="D346" s="30"/>
-      <c r="E346" s="26"/>
-      <c r="F346" s="26"/>
-      <c r="G346" s="26"/>
-      <c r="H346" s="39" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I346" s="39" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J346" s="39"/>
-      <c r="K346" s="39"/>
-      <c r="L346" s="26"/>
-      <c r="M346" s="26"/>
-      <c r="N346" s="26"/>
-      <c r="O346" s="26"/>
-      <c r="P346" s="26"/>
-      <c r="Q346" s="26"/>
-      <c r="R346" s="26"/>
-      <c r="S346" s="26"/>
-      <c r="T346" s="26"/>
-      <c r="U346" s="26"/>
-      <c r="V346" s="26"/>
-      <c r="W346" s="26"/>
-      <c r="X346" s="26"/>
-      <c r="Y346" s="26"/>
-      <c r="Z346" s="26"/>
-      <c r="AA346" s="26"/>
-      <c r="AB346" s="26"/>
-      <c r="AC346" s="26"/>
-      <c r="AD346" s="26"/>
-      <c r="AE346" s="26"/>
-      <c r="AF346" s="26"/>
-      <c r="AG346" s="26"/>
-      <c r="AH346" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -39548,7 +39517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFD5627-C7B7-41CB-B8FF-ED3219DDB42A}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -39567,7 +39536,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="40" t="s">
         <v>385</v>
       </c>
       <c r="B2" t="s">
@@ -39575,7 +39544,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="40" t="s">
         <v>386</v>
       </c>
       <c r="B3" t="s">
@@ -39583,7 +39552,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="40" t="s">
         <v>387</v>
       </c>
       <c r="B4" t="s">
@@ -39591,7 +39560,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="40" t="s">
         <v>388</v>
       </c>
       <c r="B5" t="s">
@@ -39599,7 +39568,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="40" t="s">
         <v>389</v>
       </c>
       <c r="B6" t="s">
@@ -39607,7 +39576,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="40" t="s">
         <v>390</v>
       </c>
       <c r="B7" t="s">
@@ -39615,7 +39584,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="40" t="s">
         <v>391</v>
       </c>
       <c r="B8" t="s">
@@ -39623,7 +39592,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="40" t="s">
         <v>392</v>
       </c>
       <c r="B9" t="s">
@@ -39631,7 +39600,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="40" t="s">
         <v>393</v>
       </c>
       <c r="B10" t="s">
@@ -39639,7 +39608,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="40" t="s">
         <v>394</v>
       </c>
       <c r="B11" t="s">
@@ -39647,7 +39616,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="40" t="s">
         <v>395</v>
       </c>
       <c r="B12" t="s">
@@ -39655,7 +39624,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="40" t="s">
         <v>396</v>
       </c>
       <c r="B13" t="s">
@@ -39663,7 +39632,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="40" t="s">
         <v>397</v>
       </c>
       <c r="B14" t="s">
@@ -39671,7 +39640,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="40" t="s">
         <v>398</v>
       </c>
       <c r="B15" t="s">
@@ -39679,7 +39648,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="40" t="s">
         <v>399</v>
       </c>
       <c r="B16" t="s">
@@ -39687,7 +39656,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="40" t="s">
         <v>400</v>
       </c>
       <c r="B17" t="s">
@@ -39695,7 +39664,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="40" t="s">
         <v>401</v>
       </c>
       <c r="B18" t="s">
@@ -39703,7 +39672,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="40" t="s">
         <v>402</v>
       </c>
       <c r="B19" t="s">
@@ -39711,7 +39680,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="40" t="s">
         <v>403</v>
       </c>
       <c r="B20" t="s">
@@ -39719,7 +39688,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="40" t="s">
         <v>404</v>
       </c>
       <c r="B21" t="s">
@@ -39727,7 +39696,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="40" t="s">
         <v>405</v>
       </c>
       <c r="B22" t="s">
@@ -39748,7 +39717,7 @@
   <dimension ref="B4:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B24"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
